--- a/data/spec1d/All-Lines-MUSE-NGC-346.xlsx
+++ b/data/spec1d/All-Lines-MUSE-NGC-346.xlsx
@@ -297,6 +297,11 @@
         <t xml:space="preserve">plus He I 8361.73</t>
       </text>
     </comment>
+    <comment authorId="0" ref="F382">
+      <text>
+        <t xml:space="preserve">plus UIL</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F388">
       <text>
         <t xml:space="preserve">plus Ca I] 8459.50 perhaps</t>
@@ -309,7 +314,7 @@
     </comment>
     <comment authorId="0" ref="F407">
       <text>
-        <t xml:space="preserve">plus 8686.15 plus 8680.28 plus UIL?
+        <t xml:space="preserve">plus N I 8683.40, 8686.15, 8680.28
 </t>
       </text>
     </comment>
@@ -324,7 +329,12 @@
 </t>
       </text>
     </comment>
-    <comment authorId="0" ref="F463">
+    <comment authorId="0" ref="F466">
+      <text>
+        <t xml:space="preserve">plus wing of H I 9229.01</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F464">
       <text>
         <t xml:space="preserve">Looks like maybe another Ca I?
 	-William Henney
@@ -332,7 +342,7 @@
 	-William Henney</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A476">
+    <comment authorId="0" ref="A478">
       <text>
         <t xml:space="preserve">Where did these last two rows come from?
 	-William Henney</t>
@@ -365,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="370">
   <si>
     <t>Index</t>
   </si>
@@ -1367,7 +1377,7 @@
     <t>This and #2874 are the same multiplet as 8216, 8223</t>
   </si>
   <si>
-    <t>Diffuse morphology is unclear. Could be Deep Neutral</t>
+    <t>Weak, but diffuse morphology is clear</t>
   </si>
   <si>
     <t>N I 8216.34+</t>
@@ -1412,7 +1422,10 @@
     <t>H I 8374.48</t>
   </si>
   <si>
-    <t>H I 8392.40</t>
+    <t>H I 8392.40+</t>
+  </si>
+  <si>
+    <t>Blend with Deep Neutral</t>
   </si>
   <si>
     <t>H I 8413.32</t>
@@ -1466,10 +1479,7 @@
     <t>H I 8665.02</t>
   </si>
   <si>
-    <t>N I 8683.40+</t>
-  </si>
-  <si>
-    <t>Broad blend of triplet of N I lines, but maybe blended with something else too</t>
+    <t>Broad blend of Deep Neutral UIL with triplet of N I lines, but UIL dominates</t>
   </si>
   <si>
     <t>Looks very similar to #3286 but there is no N I line here</t>
@@ -1502,15 +1512,18 @@
     <t>H I 8750.48</t>
   </si>
   <si>
+    <t>* Look like emission line in blob-e</t>
+  </si>
+  <si>
+    <t>* Look like emission line in neutral</t>
+  </si>
+  <si>
     <t>Possible ID: C_2 8788.559</t>
   </si>
   <si>
     <t>Possible ID: C_2 8809.841</t>
   </si>
   <si>
-    <t>Sky line at 8850.055</t>
-  </si>
-  <si>
     <t>H I 8862.79</t>
   </si>
   <si>
@@ -1565,6 +1578,9 @@
     <t>Broad. Affected by same absorption</t>
   </si>
   <si>
+    <t>Weaker counterpart to previous, can be seen as separate line. Strength and wavelength approximate.</t>
+  </si>
+  <si>
     <t>Ca I] 9204.09</t>
   </si>
   <si>
@@ -1578,6 +1594,9 @@
   </si>
   <si>
     <t>H I 9229.01</t>
+  </si>
+  <si>
+    <t>Severe blend with red wing of H I line. Strength and wavelength are very approximate</t>
   </si>
   <si>
     <t>Ca I] 9244.31</t>
@@ -2141,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="10">
-        <f t="shared" ref="C2:C477" si="1">4599.94482421875 + 1.25*A2</f>
+        <f t="shared" ref="C2:C479" si="1">4599.94482421875 + 1.25*A2</f>
         <v>4604.944824</v>
       </c>
       <c r="D2" s="11"/>
@@ -13860,8 +13879,15 @@
         <f t="shared" si="1"/>
         <v>8174.944824</v>
       </c>
-      <c r="D358" s="13"/>
-      <c r="G358" s="16"/>
+      <c r="D358" s="13">
+        <v>8170.69</v>
+      </c>
+      <c r="E358" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G358" s="13">
+        <v>0.8912</v>
+      </c>
       <c r="H358" s="14"/>
       <c r="I358" s="28"/>
     </row>
@@ -13876,8 +13902,15 @@
         <f t="shared" si="1"/>
         <v>8179.944824</v>
       </c>
-      <c r="D359" s="16"/>
-      <c r="G359" s="16"/>
+      <c r="D359" s="13">
+        <v>8174.97</v>
+      </c>
+      <c r="E359" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G359" s="13">
+        <v>0.6005</v>
+      </c>
       <c r="H359" s="14"/>
       <c r="I359" s="28"/>
     </row>
@@ -13981,7 +14014,7 @@
         <v>8207.85</v>
       </c>
       <c r="E363" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F363" s="9" t="s">
         <v>31</v>
@@ -14125,10 +14158,36 @@
         <f t="shared" si="1"/>
         <v>8264.944824</v>
       </c>
-      <c r="D368" s="16"/>
-      <c r="G368" s="16"/>
+      <c r="D368" s="13">
+        <v>8260.84</v>
+      </c>
+      <c r="E368" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F368" s="12"/>
+      <c r="G368" s="13">
+        <v>0.2892</v>
+      </c>
       <c r="H368" s="14"/>
       <c r="I368" s="28"/>
+      <c r="J368" s="12"/>
+      <c r="K368" s="12"/>
+      <c r="L368" s="12"/>
+      <c r="M368" s="12"/>
+      <c r="N368" s="12"/>
+      <c r="O368" s="12"/>
+      <c r="P368" s="12"/>
+      <c r="Q368" s="12"/>
+      <c r="R368" s="12"/>
+      <c r="S368" s="12"/>
+      <c r="T368" s="12"/>
+      <c r="U368" s="12"/>
+      <c r="V368" s="12"/>
+      <c r="W368" s="12"/>
+      <c r="X368" s="12"/>
+      <c r="Y368" s="12"/>
+      <c r="Z368" s="12"/>
+      <c r="AA368" s="12"/>
     </row>
     <row r="369">
       <c r="A369" s="8">
@@ -14445,8 +14504,15 @@
         <f t="shared" si="1"/>
         <v>8349.944824</v>
       </c>
-      <c r="D379" s="16"/>
-      <c r="G379" s="16"/>
+      <c r="D379" s="13">
+        <v>8344.86</v>
+      </c>
+      <c r="E379" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G379" s="13">
+        <v>5.2854</v>
+      </c>
       <c r="H379" s="14"/>
       <c r="I379" s="28"/>
     </row>
@@ -14532,7 +14598,9 @@
       <c r="H382" s="17">
         <v>101.0</v>
       </c>
-      <c r="I382" s="31"/>
+      <c r="I382" s="29" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="8">
@@ -14590,7 +14658,7 @@
         <v>46</v>
       </c>
       <c r="F384" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G384" s="16"/>
       <c r="H384" s="14"/>
@@ -14608,9 +14676,31 @@
         <v>8429.944824</v>
       </c>
       <c r="D385" s="16"/>
+      <c r="E385" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F385" s="12"/>
       <c r="G385" s="16"/>
       <c r="H385" s="14"/>
       <c r="I385" s="28"/>
+      <c r="J385" s="12"/>
+      <c r="K385" s="12"/>
+      <c r="L385" s="12"/>
+      <c r="M385" s="12"/>
+      <c r="N385" s="12"/>
+      <c r="O385" s="12"/>
+      <c r="P385" s="12"/>
+      <c r="Q385" s="12"/>
+      <c r="R385" s="12"/>
+      <c r="S385" s="12"/>
+      <c r="T385" s="12"/>
+      <c r="U385" s="12"/>
+      <c r="V385" s="12"/>
+      <c r="W385" s="12"/>
+      <c r="X385" s="12"/>
+      <c r="Y385" s="12"/>
+      <c r="Z385" s="12"/>
+      <c r="AA385" s="12"/>
     </row>
     <row r="386">
       <c r="A386" s="8">
@@ -14630,7 +14720,7 @@
         <v>46</v>
       </c>
       <c r="F386" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G386" s="13">
         <v>8.5012</v>
@@ -14658,7 +14748,7 @@
         <v>76</v>
       </c>
       <c r="F387" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G387" s="13">
         <v>48.1592</v>
@@ -14695,7 +14785,7 @@
         <v>53</v>
       </c>
       <c r="I388" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="389">
@@ -14716,7 +14806,7 @@
         <v>46</v>
       </c>
       <c r="F389" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G389" s="13">
         <v>10.5272</v>
@@ -14753,7 +14843,7 @@
         <v>53</v>
       </c>
       <c r="I390" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="391">
@@ -14774,7 +14864,7 @@
         <v>46</v>
       </c>
       <c r="F391" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G391" s="13">
         <v>14.1704</v>
@@ -14872,7 +14962,7 @@
         <v>46</v>
       </c>
       <c r="F394" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G394" s="13">
         <v>18.6128</v>
@@ -14960,7 +15050,7 @@
         <v>104</v>
       </c>
       <c r="F397" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G397" s="13">
         <v>2.915</v>
@@ -14969,7 +15059,7 @@
         <v>11.0</v>
       </c>
       <c r="I397" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="398">
@@ -14990,7 +15080,7 @@
         <v>46</v>
       </c>
       <c r="F398" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G398" s="13">
         <v>19.2311</v>
@@ -14999,7 +15089,7 @@
         <v>53</v>
       </c>
       <c r="I398" s="29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="399">
@@ -15048,7 +15138,7 @@
         <v>12</v>
       </c>
       <c r="F400" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G400" s="13">
         <v>0.48</v>
@@ -15057,7 +15147,7 @@
         <v>22</v>
       </c>
       <c r="I400" s="27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="401">
@@ -15087,7 +15177,7 @@
         <v>22</v>
       </c>
       <c r="I401" s="27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="402">
@@ -15102,9 +15192,31 @@
         <v>8632.444824</v>
       </c>
       <c r="D402" s="16"/>
+      <c r="E402" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F402" s="12"/>
       <c r="G402" s="16"/>
       <c r="H402" s="14"/>
       <c r="I402" s="28"/>
+      <c r="J402" s="12"/>
+      <c r="K402" s="12"/>
+      <c r="L402" s="12"/>
+      <c r="M402" s="12"/>
+      <c r="N402" s="12"/>
+      <c r="O402" s="12"/>
+      <c r="P402" s="12"/>
+      <c r="Q402" s="12"/>
+      <c r="R402" s="12"/>
+      <c r="S402" s="12"/>
+      <c r="T402" s="12"/>
+      <c r="U402" s="12"/>
+      <c r="V402" s="12"/>
+      <c r="W402" s="12"/>
+      <c r="X402" s="12"/>
+      <c r="Y402" s="12"/>
+      <c r="Z402" s="12"/>
+      <c r="AA402" s="12"/>
     </row>
     <row r="403">
       <c r="A403" s="8">
@@ -15118,9 +15230,31 @@
         <v>8642.444824</v>
       </c>
       <c r="D403" s="16"/>
+      <c r="E403" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F403" s="12"/>
       <c r="G403" s="16"/>
       <c r="H403" s="14"/>
       <c r="I403" s="28"/>
+      <c r="J403" s="12"/>
+      <c r="K403" s="12"/>
+      <c r="L403" s="12"/>
+      <c r="M403" s="12"/>
+      <c r="N403" s="12"/>
+      <c r="O403" s="12"/>
+      <c r="P403" s="12"/>
+      <c r="Q403" s="12"/>
+      <c r="R403" s="12"/>
+      <c r="S403" s="12"/>
+      <c r="T403" s="12"/>
+      <c r="U403" s="12"/>
+      <c r="V403" s="12"/>
+      <c r="W403" s="12"/>
+      <c r="X403" s="12"/>
+      <c r="Y403" s="12"/>
+      <c r="Z403" s="12"/>
+      <c r="AA403" s="12"/>
     </row>
     <row r="404">
       <c r="A404" s="8">
@@ -15149,7 +15283,7 @@
         <v>53</v>
       </c>
       <c r="I404" s="27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="405">
@@ -15170,7 +15304,7 @@
         <v>46</v>
       </c>
       <c r="F405" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G405" s="13">
         <v>26.4195</v>
@@ -15223,10 +15357,10 @@
         <v>8684.99</v>
       </c>
       <c r="E407" s="9" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="F407" s="9" t="s">
-        <v>325</v>
+        <v>203</v>
       </c>
       <c r="G407" s="13">
         <v>3.3493</v>
@@ -15481,10 +15615,19 @@
         <f t="shared" si="1"/>
         <v>8762.444824</v>
       </c>
-      <c r="D416" s="16"/>
-      <c r="G416" s="16"/>
+      <c r="D416" s="13">
+        <v>8758.17</v>
+      </c>
+      <c r="E416" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G416" s="13">
+        <v>1.1805</v>
+      </c>
       <c r="H416" s="14"/>
-      <c r="I416" s="28"/>
+      <c r="I416" s="15" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="8">
@@ -15497,10 +15640,19 @@
         <f t="shared" si="1"/>
         <v>8768.694824</v>
       </c>
-      <c r="D417" s="16"/>
-      <c r="G417" s="16"/>
+      <c r="D417" s="13">
+        <v>8763.94</v>
+      </c>
+      <c r="E417" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G417" s="13">
+        <v>2.1574</v>
+      </c>
       <c r="H417" s="14"/>
-      <c r="I417" s="28"/>
+      <c r="I417" s="15" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="8">
@@ -15513,10 +15665,19 @@
         <f t="shared" si="1"/>
         <v>8778.694824</v>
       </c>
-      <c r="D418" s="16"/>
-      <c r="G418" s="16"/>
+      <c r="D418" s="13">
+        <v>8774.78</v>
+      </c>
+      <c r="E418" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G418" s="13">
+        <v>3.2905</v>
+      </c>
       <c r="H418" s="14"/>
-      <c r="I418" s="28"/>
+      <c r="I418" s="15" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="8">
@@ -15545,7 +15706,7 @@
         <v>53</v>
       </c>
       <c r="I419" s="27" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="420">
@@ -15559,10 +15720,19 @@
         <f t="shared" si="1"/>
         <v>8802.444824</v>
       </c>
-      <c r="D420" s="16"/>
-      <c r="G420" s="16"/>
+      <c r="D420" s="13">
+        <v>8798.11</v>
+      </c>
+      <c r="E420" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G420" s="13">
+        <v>0.416</v>
+      </c>
       <c r="H420" s="14"/>
-      <c r="I420" s="28"/>
+      <c r="I420" s="15" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="8">
@@ -15591,7 +15761,7 @@
         <v>11.0</v>
       </c>
       <c r="I421" s="27" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="422">
@@ -15605,10 +15775,22 @@
         <f t="shared" si="1"/>
         <v>8822.444824</v>
       </c>
-      <c r="D422" s="16"/>
-      <c r="G422" s="16"/>
+      <c r="D422" s="13">
+        <v>8817.67</v>
+      </c>
+      <c r="E422" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F422" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G422" s="13">
+        <v>1.178</v>
+      </c>
       <c r="H422" s="14"/>
-      <c r="I422" s="18"/>
+      <c r="I422" s="15" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="8">
@@ -15621,10 +15803,36 @@
         <f t="shared" si="1"/>
         <v>8827.444824</v>
       </c>
-      <c r="D423" s="16"/>
-      <c r="G423" s="16"/>
+      <c r="D423" s="13">
+        <v>8823.14</v>
+      </c>
+      <c r="E423" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F423" s="12"/>
+      <c r="G423" s="13">
+        <v>4.8991</v>
+      </c>
       <c r="H423" s="14"/>
       <c r="I423" s="18"/>
+      <c r="J423" s="12"/>
+      <c r="K423" s="12"/>
+      <c r="L423" s="12"/>
+      <c r="M423" s="12"/>
+      <c r="N423" s="12"/>
+      <c r="O423" s="12"/>
+      <c r="P423" s="12"/>
+      <c r="Q423" s="12"/>
+      <c r="R423" s="12"/>
+      <c r="S423" s="12"/>
+      <c r="T423" s="12"/>
+      <c r="U423" s="12"/>
+      <c r="V423" s="12"/>
+      <c r="W423" s="12"/>
+      <c r="X423" s="12"/>
+      <c r="Y423" s="12"/>
+      <c r="Z423" s="12"/>
+      <c r="AA423" s="12"/>
     </row>
     <row r="424">
       <c r="A424" s="8">
@@ -15637,10 +15845,36 @@
         <f t="shared" si="1"/>
         <v>8851.194824</v>
       </c>
-      <c r="D424" s="16"/>
-      <c r="G424" s="16"/>
+      <c r="D424" s="13">
+        <v>8845.75</v>
+      </c>
+      <c r="E424" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F424" s="12"/>
+      <c r="G424" s="13">
+        <v>8.3687</v>
+      </c>
       <c r="H424" s="14"/>
-      <c r="I424" s="18"/>
+      <c r="I424" s="15"/>
+      <c r="J424" s="12"/>
+      <c r="K424" s="12"/>
+      <c r="L424" s="12"/>
+      <c r="M424" s="12"/>
+      <c r="N424" s="12"/>
+      <c r="O424" s="12"/>
+      <c r="P424" s="12"/>
+      <c r="Q424" s="12"/>
+      <c r="R424" s="12"/>
+      <c r="S424" s="12"/>
+      <c r="T424" s="12"/>
+      <c r="U424" s="12"/>
+      <c r="V424" s="12"/>
+      <c r="W424" s="12"/>
+      <c r="X424" s="12"/>
+      <c r="Y424" s="12"/>
+      <c r="Z424" s="12"/>
+      <c r="AA424" s="12"/>
     </row>
     <row r="425">
       <c r="A425" s="8">
@@ -15668,9 +15902,7 @@
       <c r="H425" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I425" s="15" t="s">
-        <v>339</v>
-      </c>
+      <c r="I425" s="15"/>
     </row>
     <row r="426">
       <c r="A426" s="8">
@@ -15690,7 +15922,7 @@
         <v>46</v>
       </c>
       <c r="F426" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G426" s="13">
         <v>49.7255</v>
@@ -15753,7 +15985,7 @@
         <v>53</v>
       </c>
       <c r="I428" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="429">
@@ -15767,7 +15999,15 @@
         <f t="shared" si="1"/>
         <v>8904.944824</v>
       </c>
-      <c r="D429" s="16"/>
+      <c r="D429" s="13">
+        <v>8900.08</v>
+      </c>
+      <c r="E429" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F429" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G429" s="16"/>
       <c r="H429" s="14"/>
       <c r="I429" s="18"/>
@@ -15821,7 +16061,12 @@
         <f t="shared" si="1"/>
         <v>8919.944824</v>
       </c>
-      <c r="D431" s="16"/>
+      <c r="D431" s="13">
+        <v>8915.5</v>
+      </c>
+      <c r="E431" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="G431" s="16"/>
       <c r="H431" s="14"/>
       <c r="I431" s="18"/>
@@ -15954,7 +16199,7 @@
         <v>101.0</v>
       </c>
       <c r="I435" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="436">
@@ -15978,7 +16223,7 @@
       <c r="G436" s="16"/>
       <c r="H436" s="14"/>
       <c r="I436" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J436" s="12"/>
       <c r="K436" s="12"/>
@@ -16014,7 +16259,7 @@
         <v>8963.23</v>
       </c>
       <c r="E437" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G437" s="16"/>
       <c r="H437" s="14"/>
@@ -16076,7 +16321,7 @@
         <v>64</v>
       </c>
       <c r="F439" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G439" s="16"/>
       <c r="H439" s="14"/>
@@ -16118,12 +16363,12 @@
         <v>64</v>
       </c>
       <c r="F440" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G440" s="16"/>
       <c r="H440" s="14"/>
       <c r="I440" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J440" s="12"/>
       <c r="K440" s="12"/>
@@ -16162,7 +16407,7 @@
         <v>46</v>
       </c>
       <c r="F441" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G441" s="13">
         <v>59.0</v>
@@ -16199,7 +16444,7 @@
         <v>53</v>
       </c>
       <c r="I442" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="443">
@@ -16243,7 +16488,7 @@
       </c>
       <c r="D444" s="16"/>
       <c r="E444" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G444" s="16"/>
       <c r="H444" s="14"/>
@@ -16262,7 +16507,7 @@
       </c>
       <c r="D445" s="16"/>
       <c r="E445" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G445" s="16"/>
       <c r="H445" s="14"/>
@@ -16281,7 +16526,7 @@
       </c>
       <c r="D446" s="16"/>
       <c r="E446" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G446" s="16"/>
       <c r="H446" s="14"/>
@@ -16314,7 +16559,7 @@
         <v>53</v>
       </c>
       <c r="I447" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="448">
@@ -16335,7 +16580,7 @@
         <v>46</v>
       </c>
       <c r="F448" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G448" s="13">
         <v>1.5067</v>
@@ -16363,7 +16608,7 @@
         <v>46</v>
       </c>
       <c r="F449" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G449" s="13">
         <v>260.0</v>
@@ -16513,7 +16758,7 @@
         <v>161</v>
       </c>
       <c r="F454" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G454" s="13">
         <v>0.6</v>
@@ -16522,7 +16767,7 @@
         <v>22</v>
       </c>
       <c r="I454" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="455">
@@ -16630,7 +16875,7 @@
         <v>53</v>
       </c>
       <c r="I457" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="458">
@@ -16660,241 +16905,241 @@
         <v>53</v>
       </c>
       <c r="I458" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="8">
-        <v>3664.0</v>
+      <c r="A459" s="19">
+        <v>3654.0</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C459" s="10">
         <f t="shared" si="1"/>
-        <v>9179.944824</v>
+        <v>9167.444824</v>
       </c>
       <c r="D459" s="13">
-        <v>9175.76</v>
+        <v>9162.2480594</v>
       </c>
       <c r="E459" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G459" s="16"/>
-      <c r="H459" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="F459" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G459" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="H459" s="17">
+        <v>101.0</v>
+      </c>
       <c r="I459" s="15" t="s">
-        <v>75</v>
+        <v>359</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="8">
-        <v>3679.0</v>
+        <v>3664.0</v>
       </c>
       <c r="B460" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C460" s="10">
         <f t="shared" si="1"/>
-        <v>9198.694824</v>
-      </c>
-      <c r="D460" s="16"/>
+        <v>9179.944824</v>
+      </c>
+      <c r="D460" s="13">
+        <v>9175.76</v>
+      </c>
       <c r="E460" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F460" s="12"/>
+        <v>211</v>
+      </c>
       <c r="G460" s="16"/>
       <c r="H460" s="14"/>
-      <c r="I460" s="18"/>
-      <c r="J460" s="12"/>
-      <c r="K460" s="12"/>
-      <c r="L460" s="12"/>
-      <c r="M460" s="12"/>
-      <c r="N460" s="12"/>
-      <c r="O460" s="12"/>
-      <c r="P460" s="12"/>
-      <c r="Q460" s="12"/>
-      <c r="R460" s="12"/>
-      <c r="S460" s="12"/>
-      <c r="T460" s="12"/>
-      <c r="U460" s="12"/>
-      <c r="V460" s="12"/>
-      <c r="W460" s="12"/>
-      <c r="X460" s="12"/>
-      <c r="Y460" s="12"/>
-      <c r="Z460" s="12"/>
-      <c r="AA460" s="12"/>
+      <c r="I460" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="8">
-        <v>3687.0</v>
+        <v>3679.0</v>
       </c>
       <c r="B461" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C461" s="10">
         <f t="shared" si="1"/>
-        <v>9208.694824</v>
-      </c>
-      <c r="D461" s="13">
-        <v>9204.18</v>
-      </c>
+        <v>9198.694824</v>
+      </c>
+      <c r="D461" s="16"/>
       <c r="E461" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F461" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="G461" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="H461" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I461" s="15" t="s">
-        <v>359</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F461" s="12"/>
+      <c r="G461" s="16"/>
+      <c r="H461" s="14"/>
+      <c r="I461" s="18"/>
+      <c r="J461" s="12"/>
+      <c r="K461" s="12"/>
+      <c r="L461" s="12"/>
+      <c r="M461" s="12"/>
+      <c r="N461" s="12"/>
+      <c r="O461" s="12"/>
+      <c r="P461" s="12"/>
+      <c r="Q461" s="12"/>
+      <c r="R461" s="12"/>
+      <c r="S461" s="12"/>
+      <c r="T461" s="12"/>
+      <c r="U461" s="12"/>
+      <c r="V461" s="12"/>
+      <c r="W461" s="12"/>
+      <c r="X461" s="12"/>
+      <c r="Y461" s="12"/>
+      <c r="Z461" s="12"/>
+      <c r="AA461" s="12"/>
     </row>
     <row r="462">
       <c r="A462" s="8">
-        <v>3692.0</v>
+        <v>3687.0</v>
       </c>
       <c r="B462" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C462" s="10">
         <f t="shared" si="1"/>
-        <v>9214.944824</v>
+        <v>9208.694824</v>
       </c>
       <c r="D462" s="13">
-        <v>9210.11</v>
+        <v>9204.18</v>
       </c>
       <c r="E462" s="9" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F462" s="9" t="s">
         <v>360</v>
       </c>
       <c r="G462" s="13">
-        <v>1.3</v>
+        <v>1.0</v>
       </c>
       <c r="H462" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I462" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="I462" s="15" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="8">
-        <v>3699.0</v>
+        <v>3692.0</v>
       </c>
       <c r="B463" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C463" s="10">
         <f t="shared" si="1"/>
-        <v>9223.694824</v>
+        <v>9214.944824</v>
       </c>
       <c r="D463" s="13">
-        <v>9217.98</v>
+        <v>9210.11</v>
       </c>
       <c r="E463" s="9" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="F463" s="9" t="s">
-        <v>31</v>
+        <v>362</v>
       </c>
       <c r="G463" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="H463" s="17">
-        <v>11.0</v>
-      </c>
-      <c r="I463" s="15" t="s">
-        <v>361</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="H463" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I463" s="15"/>
     </row>
     <row r="464">
       <c r="A464" s="8">
-        <v>3707.0</v>
+        <v>3699.0</v>
       </c>
       <c r="B464" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C464" s="10">
         <f t="shared" si="1"/>
-        <v>9233.694824</v>
+        <v>9223.694824</v>
       </c>
       <c r="D464" s="13">
-        <v>9228.82</v>
+        <v>9217.98</v>
       </c>
       <c r="E464" s="9" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F464" s="9" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
       <c r="G464" s="13">
-        <v>92.0</v>
-      </c>
-      <c r="H464" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I464" s="15"/>
+        <v>1.0</v>
+      </c>
+      <c r="H464" s="17">
+        <v>11.0</v>
+      </c>
+      <c r="I464" s="15" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="8">
-        <v>3720.0</v>
+        <v>3707.0</v>
       </c>
       <c r="B465" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C465" s="10">
         <f t="shared" si="1"/>
-        <v>9249.944824</v>
+        <v>9233.694824</v>
       </c>
       <c r="D465" s="13">
-        <v>9244.4</v>
+        <v>9228.82</v>
       </c>
       <c r="E465" s="9" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F465" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G465" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="H465" s="17">
-        <v>11.0</v>
-      </c>
-      <c r="I465" s="15" t="s">
-        <v>364</v>
-      </c>
+        <v>92.0</v>
+      </c>
+      <c r="H465" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I465" s="15"/>
     </row>
     <row r="466">
-      <c r="A466" s="8">
-        <v>3736.0</v>
+      <c r="A466" s="19">
+        <v>3711.0</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C466" s="10">
         <f t="shared" si="1"/>
-        <v>9269.944824</v>
+        <v>9238.694824</v>
       </c>
       <c r="D466" s="13">
-        <v>9262.16</v>
+        <v>9233.45770727</v>
       </c>
       <c r="E466" s="9" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="F466" s="9" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="G466" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="H466" s="17" t="s">
-        <v>22</v>
+        <v>5.0</v>
+      </c>
+      <c r="H466" s="17">
+        <v>101.0</v>
       </c>
       <c r="I466" s="15" t="s">
         <v>365</v>
@@ -16902,56 +17147,78 @@
     </row>
     <row r="467">
       <c r="A467" s="8">
-        <v>3745.0</v>
+        <v>3720.0</v>
       </c>
       <c r="B467" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C467" s="10">
         <f t="shared" si="1"/>
-        <v>9281.194824</v>
-      </c>
-      <c r="D467" s="13"/>
+        <v>9249.944824</v>
+      </c>
+      <c r="D467" s="13">
+        <v>9244.4</v>
+      </c>
       <c r="E467" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G467" s="13"/>
-      <c r="H467" s="14"/>
-      <c r="I467" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="F467" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G467" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="H467" s="17">
+        <v>11.0</v>
+      </c>
+      <c r="I467" s="15" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="8">
-        <v>3750.0</v>
+        <v>3736.0</v>
       </c>
       <c r="B468" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C468" s="10">
         <f t="shared" si="1"/>
-        <v>9287.444824</v>
-      </c>
-      <c r="D468" s="13"/>
+        <v>9269.944824</v>
+      </c>
+      <c r="D468" s="13">
+        <v>9262.16</v>
+      </c>
       <c r="E468" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G468" s="13"/>
-      <c r="H468" s="14"/>
-      <c r="I468" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="F468" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G468" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="H468" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I468" s="15" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="8">
-        <v>3755.0</v>
+        <v>3745.0</v>
       </c>
       <c r="B469" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C469" s="10">
         <f t="shared" si="1"/>
-        <v>9293.694824</v>
+        <v>9281.194824</v>
       </c>
       <c r="D469" s="13"/>
       <c r="E469" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G469" s="13"/>
       <c r="H469" s="14"/>
@@ -16959,179 +17226,201 @@
     </row>
     <row r="470">
       <c r="A470" s="8">
-        <v>3762.0</v>
+        <v>3750.0</v>
       </c>
       <c r="B470" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C470" s="10">
         <f t="shared" si="1"/>
-        <v>9302.444824</v>
-      </c>
-      <c r="D470" s="13">
-        <v>9297.64</v>
-      </c>
+        <v>9287.444824</v>
+      </c>
+      <c r="D470" s="13"/>
       <c r="E470" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F470" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G470" s="13">
-        <v>10.2</v>
-      </c>
-      <c r="H470" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I470" s="15"/>
+        <v>351</v>
+      </c>
+      <c r="G470" s="13"/>
+      <c r="H470" s="14"/>
+      <c r="I470" s="18"/>
     </row>
     <row r="471">
       <c r="A471" s="8">
-        <v>3767.0</v>
+        <v>3755.0</v>
       </c>
       <c r="B471" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C471" s="10">
         <f t="shared" si="1"/>
-        <v>9308.694824</v>
+        <v>9293.694824</v>
       </c>
       <c r="D471" s="13"/>
       <c r="E471" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G471" s="13"/>
       <c r="H471" s="14"/>
-      <c r="I471" s="15" t="s">
-        <v>366</v>
-      </c>
+      <c r="I471" s="18"/>
     </row>
     <row r="472">
       <c r="A472" s="8">
-        <v>3774.0</v>
+        <v>3762.0</v>
       </c>
       <c r="B472" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C472" s="10">
         <f t="shared" si="1"/>
-        <v>9317.444824</v>
-      </c>
-      <c r="D472" s="13"/>
+        <v>9302.444824</v>
+      </c>
+      <c r="D472" s="13">
+        <v>9297.64</v>
+      </c>
       <c r="E472" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="G472" s="13"/>
-      <c r="H472" s="14"/>
-      <c r="I472" s="18"/>
+        <v>128</v>
+      </c>
+      <c r="F472" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G472" s="13">
+        <v>10.2</v>
+      </c>
+      <c r="H472" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I472" s="15"/>
     </row>
     <row r="473">
       <c r="A473" s="8">
-        <v>3779.0</v>
+        <v>3767.0</v>
       </c>
       <c r="B473" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C473" s="10">
         <f t="shared" si="1"/>
-        <v>9323.694824</v>
+        <v>9308.694824</v>
       </c>
       <c r="D473" s="13"/>
       <c r="E473" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G473" s="13"/>
       <c r="H473" s="14"/>
-      <c r="I473" s="18"/>
+      <c r="I473" s="15" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="474">
-      <c r="A474" s="19">
-        <v>3785.0</v>
+      <c r="A474" s="8">
+        <v>3774.0</v>
       </c>
       <c r="B474" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C474" s="10">
         <f t="shared" si="1"/>
-        <v>9331.194824</v>
+        <v>9317.444824</v>
       </c>
       <c r="D474" s="13"/>
       <c r="E474" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G474" s="13"/>
       <c r="H474" s="14"/>
       <c r="I474" s="18"/>
     </row>
     <row r="475">
-      <c r="A475" s="19">
-        <v>3790.0</v>
+      <c r="A475" s="8">
+        <v>3779.0</v>
       </c>
       <c r="B475" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C475" s="10">
         <f t="shared" si="1"/>
-        <v>9337.444824</v>
+        <v>9323.694824</v>
       </c>
       <c r="D475" s="13"/>
       <c r="E475" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G475" s="13"/>
       <c r="H475" s="14"/>
       <c r="I475" s="18"/>
     </row>
     <row r="476">
-      <c r="A476" s="8">
-        <v>3817.00564366942</v>
+      <c r="A476" s="19">
+        <v>3785.0</v>
       </c>
       <c r="B476" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C476" s="10">
         <f t="shared" si="1"/>
-        <v>9371.201879</v>
-      </c>
-      <c r="D476" s="16"/>
+        <v>9331.194824</v>
+      </c>
+      <c r="D476" s="13"/>
       <c r="E476" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G476" s="16"/>
+        <v>351</v>
+      </c>
+      <c r="G476" s="13"/>
       <c r="H476" s="14"/>
       <c r="I476" s="18"/>
     </row>
     <row r="477">
-      <c r="A477" s="8">
-        <v>3825.19779917114</v>
+      <c r="A477" s="19">
+        <v>3790.0</v>
       </c>
       <c r="B477" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C477" s="10">
         <f t="shared" si="1"/>
-        <v>9381.442073</v>
-      </c>
-      <c r="D477" s="16"/>
+        <v>9337.444824</v>
+      </c>
+      <c r="D477" s="13"/>
       <c r="E477" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G477" s="16"/>
+        <v>351</v>
+      </c>
+      <c r="G477" s="13"/>
       <c r="H477" s="14"/>
       <c r="I477" s="18"/>
     </row>
     <row r="478">
-      <c r="A478" s="8"/>
-      <c r="C478" s="32"/>
+      <c r="A478" s="8">
+        <v>3817.00564366942</v>
+      </c>
+      <c r="B478" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C478" s="10">
+        <f t="shared" si="1"/>
+        <v>9371.201879</v>
+      </c>
       <c r="D478" s="16"/>
+      <c r="E478" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="G478" s="16"/>
       <c r="H478" s="14"/>
       <c r="I478" s="18"/>
     </row>
     <row r="479">
-      <c r="A479" s="8"/>
-      <c r="C479" s="32"/>
+      <c r="A479" s="8">
+        <v>3825.19779917114</v>
+      </c>
+      <c r="B479" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C479" s="10">
+        <f t="shared" si="1"/>
+        <v>9381.442073</v>
+      </c>
       <c r="D479" s="16"/>
+      <c r="E479" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="G479" s="16"/>
       <c r="H479" s="14"/>
       <c r="I479" s="18"/>
@@ -21392,18 +21681,34 @@
       <c r="H1011" s="14"/>
       <c r="I1011" s="18"/>
     </row>
+    <row r="1012">
+      <c r="A1012" s="8"/>
+      <c r="C1012" s="32"/>
+      <c r="D1012" s="16"/>
+      <c r="G1012" s="16"/>
+      <c r="H1012" s="14"/>
+      <c r="I1012" s="18"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="8"/>
+      <c r="C1013" s="32"/>
+      <c r="D1013" s="16"/>
+      <c r="G1013" s="16"/>
+      <c r="H1013" s="14"/>
+      <c r="I1013" s="18"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E448 F449 E450:E462 C463:D463 E464:E1011">
+  <conditionalFormatting sqref="E1:E448 F449 E450:E463 C464:D464 E465:E1013">
     <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="High">
       <formula>LEFT((E1),LEN("High"))=("High")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A477">
+  <conditionalFormatting sqref="A2:A479">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="1"/>
@@ -21415,27 +21720,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1011">
+  <conditionalFormatting sqref="G1:G1013">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AA1011">
+  <conditionalFormatting sqref="A1:AA1013">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>OR($E1="Noise", $E1="Sky")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E448 F449 E450:E462 C463:D463 E464:E1011">
+  <conditionalFormatting sqref="E1:E448 F449 E450:E463 C464:D464 E465:E1013">
     <cfRule type="beginsWith" dxfId="4" priority="6" operator="beginsWith" text="Deep Neutral">
       <formula>LEFT((E1),LEN("Deep Neutral"))=("Deep Neutral")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1011">
+  <conditionalFormatting sqref="F1:F1013">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="UIL">
       <formula>NOT(ISERROR(SEARCH(("UIL"),(F1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1011">
+  <conditionalFormatting sqref="F1:F1013">
     <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="[Fe I]">
       <formula>NOT(ISERROR(SEARCH(("[Fe I]"),(F1))))</formula>
     </cfRule>
@@ -21460,7 +21765,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER('Master line list'!A1:AA1011, 'Master line list'!D1:D1011 &gt; 0)"),"Index")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER('Master line list'!A1:AA1013, 'Master line list'!D1:D1013 &gt; 0)"),"Index")</f>
         <v>Index</v>
       </c>
       <c r="B1" s="2" t="str">
@@ -30258,41 +30563,32 @@
     </row>
     <row r="168">
       <c r="A168" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2874.0)</f>
-        <v>2874</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2860.0)</f>
+        <v>2860</v>
       </c>
       <c r="B168" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C168" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8192.44482421875)</f>
-        <v>8192.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8174.94482421875)</f>
+        <v>8174.944824</v>
       </c>
       <c r="D168" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8187.48)</f>
-        <v>8187.48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8170.69)</f>
+        <v>8170.69</v>
       </c>
       <c r="E168" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
-        <v>Neutral</v>
-      </c>
-      <c r="F168" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8188.012")</f>
-        <v>N I 8188.012</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"?")</f>
+        <v>?</v>
+      </c>
+      <c r="F168" s="12"/>
       <c r="G168" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5492)</f>
-        <v>0.5492</v>
-      </c>
-      <c r="H168" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
-      </c>
-      <c r="I168" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* From ngc346.org: 8188 observed in Orion but unidentified?, also seen in lower globule (different one from above)")</f>
-        <v>* From ngc346.org: 8188 observed in Orion but unidentified?, also seen in lower globule (different one from above)</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.8912)</f>
+        <v>0.8912</v>
+      </c>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
       <c r="J168" s="12"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
@@ -30313,37 +30609,31 @@
     </row>
     <row r="169">
       <c r="A169" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2877.0)</f>
-        <v>2877</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2864.0)</f>
+        <v>2864</v>
       </c>
       <c r="B169" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C169" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8196.19482421875)</f>
-        <v>8196.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8179.94482421875)</f>
+        <v>8179.944824</v>
       </c>
       <c r="D169" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8189.52)</f>
-        <v>8189.52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8174.97)</f>
+        <v>8174.97</v>
       </c>
       <c r="E169" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
-      </c>
-      <c r="F169" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"?")</f>
+        <v>?</v>
+      </c>
+      <c r="F169" s="12"/>
       <c r="G169" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.4947)</f>
-        <v>2.4947</v>
-      </c>
-      <c r="H169" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.6005)</f>
+        <v>0.6005</v>
+      </c>
+      <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
       <c r="K169" s="12"/>
@@ -30365,37 +30655,40 @@
     </row>
     <row r="170">
       <c r="A170" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2884.0)</f>
-        <v>2884</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2874.0)</f>
+        <v>2874</v>
       </c>
       <c r="B170" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YSO")</f>
-        <v>YSO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
       </c>
       <c r="C170" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8204.94482421875)</f>
-        <v>8204.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8192.44482421875)</f>
+        <v>8192.444824</v>
       </c>
       <c r="D170" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8200.1)</f>
-        <v>8200.1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8187.48)</f>
+        <v>8187.48</v>
       </c>
       <c r="E170" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
         <v>Neutral</v>
       </c>
       <c r="F170" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8200.357        ")</f>
-        <v>N I 8200.357        </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8188.012")</f>
+        <v>N I 8188.012</v>
       </c>
       <c r="G170" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.4)</f>
-        <v>0.4</v>
-      </c>
-      <c r="H170" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.5492)</f>
+        <v>0.5492</v>
+      </c>
+      <c r="H170" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
+      </c>
       <c r="I170" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"This and #2874 are the same multiplet as 8216, 8223")</f>
-        <v>This and #2874 are the same multiplet as 8216, 8223</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* From ngc346.org: 8188 observed in Orion but unidentified?, also seen in lower globule (different one from above)")</f>
+        <v>* From ngc346.org: 8188 observed in Orion but unidentified?, also seen in lower globule (different one from above)</v>
       </c>
       <c r="J170" s="12"/>
       <c r="K170" s="12"/>
@@ -30417,41 +30710,38 @@
     </row>
     <row r="171">
       <c r="A171" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2889.0)</f>
-        <v>2889</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2877.0)</f>
+        <v>2877</v>
       </c>
       <c r="B171" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C171" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8211.19482421875)</f>
-        <v>8211.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8196.19482421875)</f>
+        <v>8196.194824</v>
       </c>
       <c r="D171" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8207.85)</f>
-        <v>8207.85</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8189.52)</f>
+        <v>8189.52</v>
       </c>
       <c r="E171" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
-        <v>Neutral?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F171" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
         <v>UIL</v>
       </c>
       <c r="G171" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.4)</f>
-        <v>1.4</v>
-      </c>
-      <c r="H171" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
-      </c>
-      <c r="I171" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diffuse morphology is unclear. Could be Deep Neutral")</f>
-        <v>Diffuse morphology is unclear. Could be Deep Neutral</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.4947)</f>
+        <v>2.4947</v>
+      </c>
+      <c r="H171" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
+      </c>
+      <c r="I171" s="12"/>
       <c r="J171" s="12"/>
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
@@ -30472,40 +30762,37 @@
     </row>
     <row r="172">
       <c r="A172" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2897.0)</f>
-        <v>2897</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2884.0)</f>
+        <v>2884</v>
       </c>
       <c r="B172" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
-        <v>GLOB-E</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YSO")</f>
+        <v>YSO</v>
       </c>
       <c r="C172" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8221.19482421875)</f>
-        <v>8221.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8204.94482421875)</f>
+        <v>8204.944824</v>
       </c>
       <c r="D172" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8216.88)</f>
-        <v>8216.88</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8200.1)</f>
+        <v>8200.1</v>
       </c>
       <c r="E172" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
         <v>Neutral</v>
       </c>
       <c r="F172" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8216.34+")</f>
-        <v>N I 8216.34+</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8200.357        ")</f>
+        <v>N I 8200.357        </v>
       </c>
       <c r="G172" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.1335)</f>
-        <v>2.1335</v>
-      </c>
-      <c r="H172" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.4)</f>
+        <v>0.4</v>
+      </c>
+      <c r="H172" s="12"/>
       <c r="I172" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wavelength is odd – maybe blend?")</f>
-        <v>Wavelength is odd – maybe blend?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"This and #2874 are the same multiplet as 8216, 8223")</f>
+        <v>This and #2874 are the same multiplet as 8216, 8223</v>
       </c>
       <c r="J172" s="12"/>
       <c r="K172" s="12"/>
@@ -30527,38 +30814,41 @@
     </row>
     <row r="173">
       <c r="A173" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2902.0)</f>
-        <v>2902</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2889.0)</f>
+        <v>2889</v>
       </c>
       <c r="B173" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C173" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8227.44482421875)</f>
-        <v>8227.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8211.19482421875)</f>
+        <v>8211.194824</v>
       </c>
       <c r="D173" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8223.08)</f>
-        <v>8223.08</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8207.85)</f>
+        <v>8207.85</v>
       </c>
       <c r="E173" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
-        <v>Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
+        <v>Deep Neutral?</v>
       </c>
       <c r="F173" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8223.14")</f>
-        <v>N I 8223.14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G173" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.6)</f>
-        <v>1.6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.4)</f>
+        <v>1.4</v>
       </c>
       <c r="H173" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
         <v>101B</v>
       </c>
-      <c r="I173" s="12"/>
+      <c r="I173" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Weak, but diffuse morphology is clear")</f>
+        <v>Weak, but diffuse morphology is clear</v>
+      </c>
       <c r="J173" s="12"/>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
@@ -30579,40 +30869,40 @@
     </row>
     <row r="174">
       <c r="A174" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2907.0)</f>
-        <v>2907</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2897.0)</f>
+        <v>2897</v>
       </c>
       <c r="B174" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C174" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8233.69482421875)</f>
-        <v>8233.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8221.19482421875)</f>
+        <v>8221.194824</v>
       </c>
       <c r="D174" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8229.48)</f>
-        <v>8229.48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8216.88)</f>
+        <v>8216.88</v>
       </c>
       <c r="E174" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
         <v>Neutral</v>
       </c>
       <c r="F174" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8216.34+")</f>
+        <v>N I 8216.34+</v>
       </c>
       <c r="G174" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3)</f>
-        <v>1.3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.1335)</f>
+        <v>2.1335</v>
       </c>
       <c r="H174" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
         <v>101B</v>
       </c>
       <c r="I174" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mainly YSO. Unclear diffuse")</f>
-        <v>Mainly YSO. Unclear diffuse</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wavelength is odd – maybe blend?")</f>
+        <v>Wavelength is odd – maybe blend?</v>
       </c>
       <c r="J174" s="12"/>
       <c r="K174" s="12"/>
@@ -30634,41 +30924,38 @@
     </row>
     <row r="175">
       <c r="A175" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2918.0)</f>
-        <v>2918</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2902.0)</f>
+        <v>2902</v>
       </c>
       <c r="B175" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C175" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8247.44482421875)</f>
-        <v>8247.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8227.44482421875)</f>
+        <v>8227.444824</v>
       </c>
       <c r="D175" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8242.74)</f>
-        <v>8242.74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8223.08)</f>
+        <v>8223.08</v>
       </c>
       <c r="E175" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
         <v>Neutral</v>
       </c>
       <c r="F175" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8242.39")</f>
-        <v>N I 8242.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8223.14")</f>
+        <v>N I 8223.14</v>
       </c>
       <c r="G175" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.8)</f>
-        <v>1.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.6)</f>
+        <v>1.6</v>
       </c>
       <c r="H175" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
         <v>101B</v>
       </c>
-      <c r="I175" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Same multiplet as 8216, 8223")</f>
-        <v>Same multiplet as 8216, 8223</v>
-      </c>
+      <c r="I175" s="12"/>
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
@@ -30689,38 +30976,41 @@
     </row>
     <row r="176">
       <c r="A176" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2937.0)</f>
-        <v>2937</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2907.0)</f>
+        <v>2907</v>
       </c>
       <c r="B176" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C176" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8271.19482421875)</f>
-        <v>8271.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8233.69482421875)</f>
+        <v>8233.694824</v>
       </c>
       <c r="D176" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8266.46)</f>
-        <v>8266.46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8229.48)</f>
+        <v>8229.48</v>
       </c>
       <c r="E176" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
+        <v>Neutral</v>
       </c>
       <c r="F176" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
         <v>UIL</v>
       </c>
       <c r="G176" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.99)</f>
-        <v>5.99</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3)</f>
+        <v>1.3</v>
       </c>
       <c r="H176" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
-      <c r="I176" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
+      </c>
+      <c r="I176" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mainly YSO. Unclear diffuse")</f>
+        <v>Mainly YSO. Unclear diffuse</v>
+      </c>
       <c r="J176" s="12"/>
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
@@ -30741,38 +31031,41 @@
     </row>
     <row r="177">
       <c r="A177" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2942.0)</f>
-        <v>2942</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2918.0)</f>
+        <v>2918</v>
       </c>
       <c r="B177" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C177" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8277.44482421875)</f>
-        <v>8277.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8247.44482421875)</f>
+        <v>8247.444824</v>
       </c>
       <c r="D177" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8272.32)</f>
-        <v>8272.32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8242.74)</f>
+        <v>8242.74</v>
       </c>
       <c r="E177" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
+        <v>Neutral</v>
       </c>
       <c r="F177" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8242.39")</f>
+        <v>N I 8242.39</v>
       </c>
       <c r="G177" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0907)</f>
-        <v>4.0907</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.8)</f>
+        <v>1.8</v>
       </c>
       <c r="H177" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
-      <c r="I177" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
+      </c>
+      <c r="I177" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Same multiplet as 8216, 8223")</f>
+        <v>Same multiplet as 8216, 8223</v>
+      </c>
       <c r="J177" s="12"/>
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
@@ -30793,41 +31086,32 @@
     </row>
     <row r="178">
       <c r="A178" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2951.0)</f>
-        <v>2951</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2932.0)</f>
+        <v>2932</v>
       </c>
       <c r="B178" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C178" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8288.69482421875)</f>
-        <v>8288.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8264.94482421875)</f>
+        <v>8264.944824</v>
       </c>
       <c r="D178" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8285.46)</f>
-        <v>8285.46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8260.84)</f>
+        <v>8260.84</v>
       </c>
       <c r="E178" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
-      </c>
-      <c r="F178" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Noise")</f>
+        <v>Noise</v>
+      </c>
+      <c r="F178" s="12"/>
       <c r="G178" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.3479)</f>
-        <v>8.3479</v>
-      </c>
-      <c r="H178" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
-      <c r="I178" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky line at  8286.39")</f>
-        <v>Sky line at  8286.39</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.2892)</f>
+        <v>0.2892</v>
+      </c>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
       <c r="J178" s="12"/>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
@@ -30848,20 +31132,20 @@
     </row>
     <row r="179">
       <c r="A179" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2954.0)</f>
-        <v>2954</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2937.0)</f>
+        <v>2937</v>
       </c>
       <c r="B179" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C179" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8292.44482421875)</f>
-        <v>8292.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8271.19482421875)</f>
+        <v>8271.194824</v>
       </c>
       <c r="D179" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8286.94)</f>
-        <v>8286.94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8266.46)</f>
+        <v>8266.46</v>
       </c>
       <c r="E179" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
@@ -30872,8 +31156,8 @@
         <v>UIL</v>
       </c>
       <c r="G179" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.5553)</f>
-        <v>1.5553</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.99)</f>
+        <v>5.99</v>
       </c>
       <c r="H179" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
@@ -30900,38 +31184,38 @@
     </row>
     <row r="180">
       <c r="A180" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2957.0)</f>
-        <v>2957</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2942.0)</f>
+        <v>2942</v>
       </c>
       <c r="B180" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C180" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8296.19482421875)</f>
-        <v>8296.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8277.44482421875)</f>
+        <v>8277.444824</v>
       </c>
       <c r="D180" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8292.13)</f>
-        <v>8292.13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8272.32)</f>
+        <v>8272.32</v>
       </c>
       <c r="E180" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Noise")</f>
-        <v>Noise</v>
-      </c>
-      <c r="F180" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
+      </c>
+      <c r="F180" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
       <c r="G180" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.6679)</f>
-        <v>1.6679</v>
-      </c>
-      <c r="H180" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
-      </c>
-      <c r="I180" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Possibly includes H I 8292.31 and another line from YSO, but it is too weak to measure")</f>
-        <v>Possibly includes H I 8292.31 and another line from YSO, but it is too weak to measure</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0907)</f>
+        <v>4.0907</v>
+      </c>
+      <c r="H180" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I180" s="12"/>
       <c r="J180" s="12"/>
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
@@ -30952,40 +31236,40 @@
     </row>
     <row r="181">
       <c r="A181" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2963.0)</f>
-        <v>2963</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2951.0)</f>
+        <v>2951</v>
       </c>
       <c r="B181" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C181" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8303.69482421875)</f>
-        <v>8303.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8288.69482421875)</f>
+        <v>8288.694824</v>
       </c>
       <c r="D181" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8299.39)</f>
-        <v>8299.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8285.46)</f>
+        <v>8285.46</v>
       </c>
       <c r="E181" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
         <v>Deep Neutral</v>
       </c>
       <c r="F181" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL+")</f>
-        <v>UIL+</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G181" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.4733)</f>
-        <v>5.4733</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.3479)</f>
+        <v>8.3479</v>
       </c>
       <c r="H181" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B, 101")</f>
-        <v>101B, 101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
       </c>
       <c r="I181" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I line best seen in Cont method 11")</f>
-        <v>H I line best seen in Cont method 11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky line at  8286.39")</f>
+        <v>Sky line at  8286.39</v>
       </c>
       <c r="J181" s="12"/>
       <c r="K181" s="12"/>
@@ -31007,41 +31291,38 @@
     </row>
     <row r="182">
       <c r="A182" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2968.0)</f>
-        <v>2968</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2954.0)</f>
+        <v>2954</v>
       </c>
       <c r="B182" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C182" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8309.94482421875)</f>
-        <v>8309.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8292.44482421875)</f>
+        <v>8292.444824</v>
       </c>
       <c r="D182" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8304.75)</f>
-        <v>8304.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8286.94)</f>
+        <v>8286.94</v>
       </c>
       <c r="E182" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F182" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
         <v>UIL</v>
       </c>
       <c r="G182" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.2186)</f>
-        <v>3.2186</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.5553)</f>
+        <v>1.5553</v>
       </c>
       <c r="H182" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I182" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* H I line at  8306.11")</f>
-        <v>* H I line at  8306.11</v>
-      </c>
+      <c r="I182" s="12"/>
       <c r="J182" s="12"/>
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
@@ -31062,38 +31343,38 @@
     </row>
     <row r="183">
       <c r="A183" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2975.0)</f>
-        <v>2975</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2957.0)</f>
+        <v>2957</v>
       </c>
       <c r="B183" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C183" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8318.69482421875)</f>
-        <v>8318.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8296.19482421875)</f>
+        <v>8296.194824</v>
       </c>
       <c r="D183" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8314.11)</f>
-        <v>8314.11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8292.13)</f>
+        <v>8292.13</v>
       </c>
       <c r="E183" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
-      </c>
-      <c r="F183" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8314.26")</f>
-        <v>H I 8314.26</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Noise")</f>
+        <v>Noise</v>
+      </c>
+      <c r="F183" s="12"/>
       <c r="G183" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.8016)</f>
-        <v>3.8016</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.6679)</f>
+        <v>1.6679</v>
       </c>
       <c r="H183" s="12">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
         <v>11</v>
       </c>
-      <c r="I183" s="12"/>
+      <c r="I183" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Possibly includes H I 8292.31 and another line from YSO, but it is too weak to measure")</f>
+        <v>Possibly includes H I 8292.31 and another line from YSO, but it is too weak to measure</v>
+      </c>
       <c r="J183" s="12"/>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
@@ -31114,38 +31395,41 @@
     </row>
     <row r="184">
       <c r="A184" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2982.0)</f>
-        <v>2982</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2963.0)</f>
+        <v>2963</v>
       </c>
       <c r="B184" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C184" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8327.44482421875)</f>
-        <v>8327.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8303.69482421875)</f>
+        <v>8303.694824</v>
       </c>
       <c r="D184" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8323.1)</f>
-        <v>8323.1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8299.39)</f>
+        <v>8299.39</v>
       </c>
       <c r="E184" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F184" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8323.42")</f>
-        <v>H I 8323.42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL+")</f>
+        <v>UIL+</v>
       </c>
       <c r="G184" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.3335)</f>
-        <v>4.3335</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.4733)</f>
+        <v>5.4733</v>
       </c>
       <c r="H184" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
-      <c r="I184" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B, 101")</f>
+        <v>101B, 101</v>
+      </c>
+      <c r="I184" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I line best seen in Cont method 11")</f>
+        <v>H I line best seen in Cont method 11</v>
+      </c>
       <c r="J184" s="12"/>
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
@@ -31166,38 +31450,41 @@
     </row>
     <row r="185">
       <c r="A185" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2991.0)</f>
-        <v>2991</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2968.0)</f>
+        <v>2968</v>
       </c>
       <c r="B185" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C185" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8338.69482421875)</f>
-        <v>8338.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8309.94482421875)</f>
+        <v>8309.944824</v>
       </c>
       <c r="D185" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8334.06)</f>
-        <v>8334.06</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8304.75)</f>
+        <v>8304.75</v>
       </c>
       <c r="E185" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F185" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
         <v>UIL</v>
       </c>
       <c r="G185" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.1791)</f>
-        <v>15.1791</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.2186)</f>
+        <v>3.2186</v>
       </c>
       <c r="H185" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I185" s="12"/>
+      <c r="I185" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* H I line at  8306.11")</f>
+        <v>* H I line at  8306.11</v>
+      </c>
       <c r="J185" s="12"/>
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
@@ -31218,36 +31505,36 @@
     </row>
     <row r="186">
       <c r="A186" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3011.0)</f>
-        <v>3011</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2975.0)</f>
+        <v>2975</v>
       </c>
       <c r="B186" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C186" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8363.69482421875)</f>
-        <v>8363.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8318.69482421875)</f>
+        <v>8318.694824</v>
       </c>
       <c r="D186" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8359.15)</f>
-        <v>8359.15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8314.11)</f>
+        <v>8314.11</v>
       </c>
       <c r="E186" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
         <v>Med Neb</v>
       </c>
       <c r="F186" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8359.00+")</f>
-        <v>H I 8359.00+</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8314.26")</f>
+        <v>H I 8314.26</v>
       </c>
       <c r="G186" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.3295)</f>
-        <v>6.3295</v>
-      </c>
-      <c r="H186" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.8016)</f>
+        <v>3.8016</v>
+      </c>
+      <c r="H186" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="I186" s="12"/>
       <c r="J186" s="12"/>
@@ -31270,32 +31557,32 @@
     </row>
     <row r="187">
       <c r="A187" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3023.0)</f>
-        <v>3023</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2982.0)</f>
+        <v>2982</v>
       </c>
       <c r="B187" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C187" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8378.69482421875)</f>
-        <v>8378.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8327.44482421875)</f>
+        <v>8327.444824</v>
       </c>
       <c r="D187" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8374.27)</f>
-        <v>8374.27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8323.1)</f>
+        <v>8323.1</v>
       </c>
       <c r="E187" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
         <v>Med Neb</v>
       </c>
       <c r="F187" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8374.48")</f>
-        <v>H I 8374.48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8323.42")</f>
+        <v>H I 8323.42</v>
       </c>
       <c r="G187" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1728)</f>
-        <v>7.1728</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.3335)</f>
+        <v>4.3335</v>
       </c>
       <c r="H187" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
@@ -31322,36 +31609,36 @@
     </row>
     <row r="188">
       <c r="A188" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3037.0)</f>
-        <v>3037</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2991.0)</f>
+        <v>2991</v>
       </c>
       <c r="B188" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C188" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8396.19482421875)</f>
-        <v>8396.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8338.69482421875)</f>
+        <v>8338.694824</v>
       </c>
       <c r="D188" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8392.65)</f>
-        <v>8392.65</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8334.06)</f>
+        <v>8334.06</v>
       </c>
       <c r="E188" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F188" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8392.40")</f>
-        <v>H I 8392.40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G188" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.8163)</f>
-        <v>12.8163</v>
-      </c>
-      <c r="H188" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.1791)</f>
+        <v>15.1791</v>
+      </c>
+      <c r="H188" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
       </c>
       <c r="I188" s="12"/>
       <c r="J188" s="12"/>
@@ -31374,30 +31661,30 @@
     </row>
     <row r="189">
       <c r="A189" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3054.0)</f>
-        <v>3054</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3000.0)</f>
+        <v>3000</v>
       </c>
       <c r="B189" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C189" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8417.44482421875)</f>
-        <v>8417.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8349.94482421875)</f>
+        <v>8349.944824</v>
       </c>
       <c r="D189" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8412.97)</f>
-        <v>8412.97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8344.86)</f>
+        <v>8344.86</v>
       </c>
       <c r="E189" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
-      </c>
-      <c r="F189" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8413.32")</f>
-        <v>H I 8413.32</v>
-      </c>
-      <c r="G189" s="16"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
+        <v>Neutral?</v>
+      </c>
+      <c r="F189" s="12"/>
+      <c r="G189" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.2854)</f>
+        <v>5.2854</v>
+      </c>
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
@@ -31420,32 +31707,32 @@
     </row>
     <row r="190">
       <c r="A190" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3074.0)</f>
-        <v>3074</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3011.0)</f>
+        <v>3011</v>
       </c>
       <c r="B190" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C190" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8442.44482421875)</f>
-        <v>8442.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8363.69482421875)</f>
+        <v>8363.694824</v>
       </c>
       <c r="D190" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8437.8)</f>
-        <v>8437.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8359.15)</f>
+        <v>8359.15</v>
       </c>
       <c r="E190" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
         <v>Med Neb</v>
       </c>
       <c r="F190" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8437.96")</f>
-        <v>H I 8437.96</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8359.00+")</f>
+        <v>H I 8359.00+</v>
       </c>
       <c r="G190" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5012)</f>
-        <v>8.5012</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.3295)</f>
+        <v>6.3295</v>
       </c>
       <c r="H190" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
@@ -31472,32 +31759,32 @@
     </row>
     <row r="191">
       <c r="A191" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3081.0)</f>
-        <v>3081</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3023.0)</f>
+        <v>3023</v>
       </c>
       <c r="B191" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C191" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8451.19482421875)</f>
-        <v>8451.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8378.69482421875)</f>
+        <v>8378.694824</v>
       </c>
       <c r="D191" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8446.48)</f>
-        <v>8446.48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8374.27)</f>
+        <v>8374.27</v>
       </c>
       <c r="E191" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
-        <v>Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F191" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"O I 8446.48")</f>
-        <v>O I 8446.48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8374.48")</f>
+        <v>H I 8374.48</v>
       </c>
       <c r="G191" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.1592)</f>
-        <v>48.1592</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.1728)</f>
+        <v>7.1728</v>
       </c>
       <c r="H191" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
@@ -31524,40 +31811,40 @@
     </row>
     <row r="192">
       <c r="A192" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3091.0)</f>
-        <v>3091</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3037.0)</f>
+        <v>3037</v>
       </c>
       <c r="B192" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C192" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8463.69482421875)</f>
-        <v>8463.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8396.19482421875)</f>
+        <v>8396.194824</v>
       </c>
       <c r="D192" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8459.38)</f>
-        <v>8459.38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8392.65)</f>
+        <v>8392.65</v>
       </c>
       <c r="E192" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F192" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL+")</f>
-        <v>UIL+</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8392.40+")</f>
+        <v>H I 8392.40+</v>
       </c>
       <c r="G192" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.6347)</f>
-        <v>9.6347</v>
-      </c>
-      <c r="H192" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.8163)</f>
+        <v>12.8163</v>
+      </c>
+      <c r="H192" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
       </c>
       <c r="I192" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Originally I had ID of Ca I] 8459.50, but it does not look like other Ca I lines")</f>
-        <v>Originally I had ID of Ca I] 8459.50, but it does not look like other Ca I lines</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Blend with Deep Neutral")</f>
+        <v>Blend with Deep Neutral</v>
       </c>
       <c r="J192" s="12"/>
       <c r="K192" s="12"/>
@@ -31579,37 +31866,31 @@
     </row>
     <row r="193">
       <c r="A193" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3098.0)</f>
-        <v>3098</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3054.0)</f>
+        <v>3054</v>
       </c>
       <c r="B193" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C193" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8472.44482421875)</f>
-        <v>8472.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8417.44482421875)</f>
+        <v>8417.444824</v>
       </c>
       <c r="D193" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8467.04)</f>
-        <v>8467.04</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8412.97)</f>
+        <v>8412.97</v>
       </c>
       <c r="E193" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
         <v>Med Neb</v>
       </c>
       <c r="F193" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8467.26")</f>
-        <v>H I 8467.26</v>
-      </c>
-      <c r="G193" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.5272)</f>
-        <v>10.5272</v>
-      </c>
-      <c r="H193" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8413.32")</f>
+        <v>H I 8413.32</v>
+      </c>
+      <c r="G193" s="16"/>
+      <c r="H193" s="12"/>
       <c r="I193" s="12"/>
       <c r="J193" s="12"/>
       <c r="K193" s="12"/>
@@ -31631,41 +31912,38 @@
     </row>
     <row r="194">
       <c r="A194" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3104.0)</f>
-        <v>3104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3074.0)</f>
+        <v>3074</v>
       </c>
       <c r="B194" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C194" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8479.94482421875)</f>
-        <v>8479.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8442.44482421875)</f>
+        <v>8442.444824</v>
       </c>
       <c r="D194" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8475.07)</f>
-        <v>8475.07</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8437.8)</f>
+        <v>8437.8</v>
       </c>
       <c r="E194" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F194" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8437.96")</f>
+        <v>H I 8437.96</v>
       </c>
       <c r="G194" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.6879)</f>
-        <v>2.6879</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5012)</f>
+        <v>8.5012</v>
       </c>
       <c r="H194" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I194" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* line at 8476.98 Ni II? from Orion")</f>
-        <v>* line at 8476.98 Ni II? from Orion</v>
-      </c>
+      <c r="I194" s="12"/>
       <c r="J194" s="12"/>
       <c r="K194" s="12"/>
       <c r="L194" s="12"/>
@@ -31686,32 +31964,32 @@
     </row>
     <row r="195">
       <c r="A195" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3126.0)</f>
-        <v>3126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3081.0)</f>
+        <v>3081</v>
       </c>
       <c r="B195" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C195" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8507.44482421875)</f>
-        <v>8507.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8451.19482421875)</f>
+        <v>8451.194824</v>
       </c>
       <c r="D195" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8502.05)</f>
-        <v>8502.05</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8446.48)</f>
+        <v>8446.48</v>
       </c>
       <c r="E195" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
+        <v>Neutral</v>
       </c>
       <c r="F195" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8502.49")</f>
-        <v>H I 8502.49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"O I 8446.48")</f>
+        <v>O I 8446.48</v>
       </c>
       <c r="G195" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.1704)</f>
-        <v>14.1704</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.1592)</f>
+        <v>48.1592</v>
       </c>
       <c r="H195" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
@@ -31738,40 +32016,40 @@
     </row>
     <row r="196">
       <c r="A196" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3142.0)</f>
-        <v>3142</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3091.0)</f>
+        <v>3091</v>
       </c>
       <c r="B196" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C196" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8527.44482421875)</f>
-        <v>8527.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8463.69482421875)</f>
+        <v>8463.694824</v>
       </c>
       <c r="D196" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8522.46)</f>
-        <v>8522.46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8459.38)</f>
+        <v>8459.38</v>
       </c>
       <c r="E196" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
         <v>Deep Neutral</v>
       </c>
       <c r="F196" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL+")</f>
+        <v>UIL+</v>
       </c>
       <c r="G196" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.9629)</f>
-        <v>3.9629</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.6347)</f>
+        <v>9.6347</v>
       </c>
       <c r="H196" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
       <c r="I196" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Strong")</f>
-        <v>Strong</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Originally I had ID of Ca I] 8459.50, but it does not look like other Ca I lines")</f>
+        <v>Originally I had ID of Ca I] 8459.50, but it does not look like other Ca I lines</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="12"/>
@@ -31793,28 +32071,37 @@
     </row>
     <row r="197">
       <c r="A197" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3147.0)</f>
-        <v>3147</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3098.0)</f>
+        <v>3098</v>
       </c>
       <c r="B197" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C197" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8533.69482421875)</f>
-        <v>8533.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8472.44482421875)</f>
+        <v>8472.444824</v>
       </c>
       <c r="D197" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8529.34)</f>
-        <v>8529.34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8467.04)</f>
+        <v>8467.04</v>
       </c>
       <c r="E197" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Noise")</f>
-        <v>Noise</v>
-      </c>
-      <c r="F197" s="12"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
+      </c>
+      <c r="F197" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8467.26")</f>
+        <v>H I 8467.26</v>
+      </c>
+      <c r="G197" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.5272)</f>
+        <v>10.5272</v>
+      </c>
+      <c r="H197" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
       <c r="K197" s="12"/>
@@ -31836,38 +32123,41 @@
     </row>
     <row r="198">
       <c r="A198" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3160.0)</f>
-        <v>3160</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3104.0)</f>
+        <v>3104</v>
       </c>
       <c r="B198" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C198" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8549.94482421875)</f>
-        <v>8549.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8479.94482421875)</f>
+        <v>8479.944824</v>
       </c>
       <c r="D198" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8545.04)</f>
-        <v>8545.04</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8475.07)</f>
+        <v>8475.07</v>
       </c>
       <c r="E198" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F198" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8545.38")</f>
-        <v>H I 8545.38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G198" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.6128)</f>
-        <v>18.6128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.6879)</f>
+        <v>2.6879</v>
       </c>
       <c r="H198" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I198" s="12"/>
+      <c r="I198" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* line at 8476.98 Ni II? from Orion")</f>
+        <v>* line at 8476.98 Ni II? from Orion</v>
+      </c>
       <c r="J198" s="12"/>
       <c r="K198" s="12"/>
       <c r="L198" s="12"/>
@@ -31888,41 +32178,38 @@
     </row>
     <row r="199">
       <c r="A199" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3164.0)</f>
-        <v>3164</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3126.0)</f>
+        <v>3126</v>
       </c>
       <c r="B199" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C199" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8554.94482421875)</f>
-        <v>8554.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8507.44482421875)</f>
+        <v>8507.444824</v>
       </c>
       <c r="D199" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8549.71)</f>
-        <v>8549.71</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8502.05)</f>
+        <v>8502.05</v>
       </c>
       <c r="E199" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F199" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8502.49")</f>
+        <v>H I 8502.49</v>
       </c>
       <c r="G199" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.7859)</f>
-        <v>5.7859</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.1704)</f>
+        <v>14.1704</v>
       </c>
       <c r="H199" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I199" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Strong")</f>
-        <v>Strong</v>
-      </c>
+      <c r="I199" s="12"/>
       <c r="J199" s="12"/>
       <c r="K199" s="12"/>
       <c r="L199" s="12"/>
@@ -31943,20 +32230,20 @@
     </row>
     <row r="200">
       <c r="A200" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3172.0)</f>
-        <v>3172</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3142.0)</f>
+        <v>3142</v>
       </c>
       <c r="B200" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C200" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8564.94482421875)</f>
-        <v>8564.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8527.44482421875)</f>
+        <v>8527.444824</v>
       </c>
       <c r="D200" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8560.31)</f>
-        <v>8560.31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8522.46)</f>
+        <v>8522.46</v>
       </c>
       <c r="E200" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
@@ -31967,8 +32254,8 @@
         <v>UIL</v>
       </c>
       <c r="G200" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.2522)</f>
-        <v>4.2522</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.9629)</f>
+        <v>3.9629</v>
       </c>
       <c r="H200" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
@@ -31998,41 +32285,29 @@
     </row>
     <row r="201">
       <c r="A201" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3187.0)</f>
-        <v>3187</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3147.0)</f>
+        <v>3147</v>
       </c>
       <c r="B201" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C201" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8583.69482421875)</f>
-        <v>8583.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8533.69482421875)</f>
+        <v>8533.694824</v>
       </c>
       <c r="D201" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8578.72)</f>
-        <v>8578.72</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8529.34)</f>
+        <v>8529.34</v>
       </c>
       <c r="E201" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Low Neb")</f>
-        <v>Low Neb</v>
-      </c>
-      <c r="F201" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Cl II] 8578.69+")</f>
-        <v>[Cl II] 8578.69+</v>
-      </c>
-      <c r="G201" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.915)</f>
-        <v>2.915</v>
-      </c>
-      <c r="H201" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
-      </c>
-      <c r="I201" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mainly [Cl II]. The He I line appears not to contribute very much")</f>
-        <v>Mainly [Cl II]. The He I line appears not to contribute very much</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Noise")</f>
+        <v>Noise</v>
+      </c>
+      <c r="F201" s="12"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
       <c r="J201" s="12"/>
       <c r="K201" s="12"/>
       <c r="L201" s="12"/>
@@ -32053,41 +32328,38 @@
     </row>
     <row r="202">
       <c r="A202" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3202.0)</f>
-        <v>3202</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3160.0)</f>
+        <v>3160</v>
       </c>
       <c r="B202" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C202" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8602.44482421875)</f>
-        <v>8602.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8549.94482421875)</f>
+        <v>8549.944824</v>
       </c>
       <c r="D202" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8598.16)</f>
-        <v>8598.16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8545.04)</f>
+        <v>8545.04</v>
       </c>
       <c r="E202" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
         <v>Med Neb</v>
       </c>
       <c r="F202" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8598.39")</f>
-        <v>H I 8598.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8545.38")</f>
+        <v>H I 8545.38</v>
       </c>
       <c r="G202" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.2311)</f>
-        <v>19.2311</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.6128)</f>
+        <v>18.6128</v>
       </c>
       <c r="H202" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I202" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"In Orion this line was affected by 2nd order ghost, but I see no evidence here")</f>
-        <v>In Orion this line was affected by 2nd order ghost, but I see no evidence here</v>
-      </c>
+      <c r="I202" s="12"/>
       <c r="J202" s="12"/>
       <c r="K202" s="12"/>
       <c r="L202" s="12"/>
@@ -32108,20 +32380,20 @@
     </row>
     <row r="203">
       <c r="A203" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3213.0)</f>
-        <v>3213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3164.0)</f>
+        <v>3164</v>
       </c>
       <c r="B203" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C203" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8616.19482421875)</f>
-        <v>8616.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8554.94482421875)</f>
+        <v>8554.944824</v>
       </c>
       <c r="D203" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8610.91)</f>
-        <v>8610.91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8549.71)</f>
+        <v>8549.71</v>
       </c>
       <c r="E203" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
@@ -32132,14 +32404,17 @@
         <v>UIL</v>
       </c>
       <c r="G203" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.878)</f>
-        <v>2.878</v>
-      </c>
-      <c r="H203" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
-      </c>
-      <c r="I203" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.7859)</f>
+        <v>5.7859</v>
+      </c>
+      <c r="H203" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I203" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Strong")</f>
+        <v>Strong</v>
+      </c>
       <c r="J203" s="12"/>
       <c r="K203" s="12"/>
       <c r="L203" s="12"/>
@@ -32160,40 +32435,40 @@
     </row>
     <row r="204">
       <c r="A204" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3218.0)</f>
-        <v>3218</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3172.0)</f>
+        <v>3172</v>
       </c>
       <c r="B204" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C204" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8622.44482421875)</f>
-        <v>8622.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8564.94482421875)</f>
+        <v>8564.944824</v>
       </c>
       <c r="D204" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8617.22)</f>
-        <v>8617.22</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8560.31)</f>
+        <v>8560.31</v>
       </c>
       <c r="E204" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fe, Ni")</f>
-        <v>Fe, Ni</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F204" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Fe II] 8616.95")</f>
-        <v>[Fe II] 8616.95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G204" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.48)</f>
-        <v>0.48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.2522)</f>
+        <v>4.2522</v>
       </c>
       <c r="H204" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
       </c>
       <c r="I204" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diffuse emission")</f>
-        <v>Diffuse emission</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Strong")</f>
+        <v>Strong</v>
       </c>
       <c r="J204" s="12"/>
       <c r="K204" s="12"/>
@@ -32215,40 +32490,40 @@
     </row>
     <row r="205">
       <c r="A205" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3221.0)</f>
-        <v>3221</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3187.0)</f>
+        <v>3187</v>
       </c>
       <c r="B205" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C205" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8626.19482421875)</f>
-        <v>8626.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8583.69482421875)</f>
+        <v>8583.694824</v>
       </c>
       <c r="D205" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8620.69)</f>
-        <v>8620.69</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8578.72)</f>
+        <v>8578.72</v>
       </c>
       <c r="E205" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Low Neb")</f>
+        <v>Low Neb</v>
       </c>
       <c r="F205" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Cl II] 8578.69+")</f>
+        <v>[Cl II] 8578.69+</v>
       </c>
       <c r="G205" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.9)</f>
-        <v>1.9</v>
-      </c>
-      <c r="H205" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.915)</f>
+        <v>2.915</v>
+      </c>
+      <c r="H205" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="I205" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Weak but a definite detection")</f>
-        <v>Weak but a definite detection</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mainly [Cl II]. The He I line appears not to contribute very much")</f>
+        <v>Mainly [Cl II]. The He I line appears not to contribute very much</v>
       </c>
       <c r="J205" s="12"/>
       <c r="K205" s="12"/>
@@ -32270,40 +32545,40 @@
     </row>
     <row r="206">
       <c r="A206" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3244.0)</f>
-        <v>3244</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3202.0)</f>
+        <v>3202</v>
       </c>
       <c r="B206" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C206" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8654.94482421875)</f>
-        <v>8654.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8602.44482421875)</f>
+        <v>8602.444824</v>
       </c>
       <c r="D206" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8650.36)</f>
-        <v>8650.36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8598.16)</f>
+        <v>8598.16</v>
       </c>
       <c r="E206" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F206" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8598.39")</f>
+        <v>H I 8598.39</v>
       </c>
       <c r="G206" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.014)</f>
-        <v>5.014</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.2311)</f>
+        <v>19.2311</v>
       </c>
       <c r="H206" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
       <c r="I206" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky line at 8651.28")</f>
-        <v>Sky line at 8651.28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"In Orion this line was affected by 2nd order ghost, but I see no evidence here")</f>
+        <v>In Orion this line was affected by 2nd order ghost, but I see no evidence here</v>
       </c>
       <c r="J206" s="12"/>
       <c r="K206" s="12"/>
@@ -32325,36 +32600,36 @@
     </row>
     <row r="207">
       <c r="A207" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3256.0)</f>
-        <v>3256</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3213.0)</f>
+        <v>3213</v>
       </c>
       <c r="B207" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C207" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8669.94482421875)</f>
-        <v>8669.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8616.19482421875)</f>
+        <v>8616.194824</v>
       </c>
       <c r="D207" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8664.68)</f>
-        <v>8664.68</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8610.91)</f>
+        <v>8610.91</v>
       </c>
       <c r="E207" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F207" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8665.02")</f>
-        <v>H I 8665.02</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G207" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.4195)</f>
-        <v>26.4195</v>
-      </c>
-      <c r="H207" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.878)</f>
+        <v>2.878</v>
+      </c>
+      <c r="H207" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="I207" s="12"/>
       <c r="J207" s="12"/>
@@ -32377,38 +32652,41 @@
     </row>
     <row r="208">
       <c r="A208" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3263.0)</f>
-        <v>3263</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3218.0)</f>
+        <v>3218</v>
       </c>
       <c r="B208" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C208" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8678.69482421875)</f>
-        <v>8678.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8622.44482421875)</f>
+        <v>8622.444824</v>
       </c>
       <c r="D208" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8674.04)</f>
-        <v>8674.04</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8617.22)</f>
+        <v>8617.22</v>
       </c>
       <c r="E208" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fe, Ni")</f>
+        <v>Fe, Ni</v>
       </c>
       <c r="F208" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Fe II] 8616.95")</f>
+        <v>[Fe II] 8616.95</v>
       </c>
       <c r="G208" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.75)</f>
-        <v>0.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.48)</f>
+        <v>0.48</v>
       </c>
       <c r="H208" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
         <v>101B</v>
       </c>
-      <c r="I208" s="12"/>
+      <c r="I208" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diffuse emission")</f>
+        <v>Diffuse emission</v>
+      </c>
       <c r="J208" s="12"/>
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
@@ -32429,40 +32707,40 @@
     </row>
     <row r="209">
       <c r="A209" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3272.0)</f>
-        <v>3272</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3221.0)</f>
+        <v>3221</v>
       </c>
       <c r="B209" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C209" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8689.94482421875)</f>
-        <v>8689.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8626.19482421875)</f>
+        <v>8626.194824</v>
       </c>
       <c r="D209" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8684.99)</f>
-        <v>8684.99</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8620.69)</f>
+        <v>8620.69</v>
       </c>
       <c r="E209" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
-        <v>Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F209" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8683.40+")</f>
-        <v>N I 8683.40+</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G209" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.3493)</f>
-        <v>3.3493</v>
-      </c>
-      <c r="H209" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.9)</f>
+        <v>1.9</v>
+      </c>
+      <c r="H209" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
       </c>
       <c r="I209" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Broad blend of triplet of N I lines, but maybe blended with something else too")</f>
-        <v>Broad blend of triplet of N I lines, but maybe blended with something else too</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Weak but a definite detection")</f>
+        <v>Weak but a definite detection</v>
       </c>
       <c r="J209" s="12"/>
       <c r="K209" s="12"/>
@@ -32484,40 +32762,40 @@
     </row>
     <row r="210">
       <c r="A210" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3280.0)</f>
-        <v>3280</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3244.0)</f>
+        <v>3244</v>
       </c>
       <c r="B210" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C210" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8699.94482421875)</f>
-        <v>8699.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8654.94482421875)</f>
+        <v>8654.944824</v>
       </c>
       <c r="D210" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8695.52)</f>
-        <v>8695.52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8650.36)</f>
+        <v>8650.36</v>
       </c>
       <c r="E210" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
-        <v>Neutral?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F210" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
         <v>UIL</v>
       </c>
       <c r="G210" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.55)</f>
-        <v>0.55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.014)</f>
+        <v>5.014</v>
       </c>
       <c r="H210" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
       </c>
       <c r="I210" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Looks very similar to #3286 but there is no N I line here")</f>
-        <v>Looks very similar to #3286 but there is no N I line here</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky line at 8651.28")</f>
+        <v>Sky line at 8651.28</v>
       </c>
       <c r="J210" s="12"/>
       <c r="K210" s="12"/>
@@ -32539,41 +32817,38 @@
     </row>
     <row r="211">
       <c r="A211" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3286.0)</f>
-        <v>3286</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3256.0)</f>
+        <v>3256</v>
       </c>
       <c r="B211" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C211" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8707.44482421875)</f>
-        <v>8707.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8669.94482421875)</f>
+        <v>8669.944824</v>
       </c>
       <c r="D211" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8703.19)</f>
-        <v>8703.19</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8664.68)</f>
+        <v>8664.68</v>
       </c>
       <c r="E211" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
-        <v>Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F211" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8703.247")</f>
-        <v>N I 8703.247</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8665.02")</f>
+        <v>H I 8665.02</v>
       </c>
       <c r="G211" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.87)</f>
-        <v>0.87</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.4195)</f>
+        <v>26.4195</v>
       </c>
       <c r="H211" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
-      </c>
-      <c r="I211" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No obvious diffuse emission. Compact sources only. Same multiplet as 8683")</f>
-        <v>No obvious diffuse emission. Compact sources only. Same multiplet as 8683</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I211" s="12"/>
       <c r="J211" s="12"/>
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
@@ -32594,41 +32869,38 @@
     </row>
     <row r="212">
       <c r="A212" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3293.0)</f>
-        <v>3293</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3263.0)</f>
+        <v>3263</v>
       </c>
       <c r="B212" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C212" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8716.19482421875)</f>
-        <v>8716.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8678.69482421875)</f>
+        <v>8678.694824</v>
       </c>
       <c r="D212" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8711.87)</f>
-        <v>8711.87</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8674.04)</f>
+        <v>8674.04</v>
       </c>
       <c r="E212" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
-        <v>Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F212" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8711.703")</f>
-        <v>N I 8711.703</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G212" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.74)</f>
-        <v>0.74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.75)</f>
+        <v>0.75</v>
       </c>
       <c r="H212" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B, 11")</f>
-        <v>101B, 11</v>
-      </c>
-      <c r="I212" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diffuse emission is very weak. Same multiplet as 8683")</f>
-        <v>Diffuse emission is very weak. Same multiplet as 8683</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
+      </c>
+      <c r="I212" s="12"/>
       <c r="J212" s="12"/>
       <c r="K212" s="12"/>
       <c r="L212" s="12"/>
@@ -32649,38 +32921,41 @@
     </row>
     <row r="213">
       <c r="A213" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3299.0)</f>
-        <v>3299</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3272.0)</f>
+        <v>3272</v>
       </c>
       <c r="B213" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C213" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8723.69482421875)</f>
-        <v>8723.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8689.94482421875)</f>
+        <v>8689.944824</v>
       </c>
       <c r="D213" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8718.52)</f>
-        <v>8718.52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8684.99)</f>
+        <v>8684.99</v>
       </c>
       <c r="E213" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
-        <v>Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F213" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8718.837")</f>
-        <v>N I 8718.837</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL+")</f>
+        <v>UIL+</v>
       </c>
       <c r="G213" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.31)</f>
-        <v>0.31</v>
-      </c>
-      <c r="H213" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
-      </c>
-      <c r="I213" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.3493)</f>
+        <v>3.3493</v>
+      </c>
+      <c r="H213" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
+      </c>
+      <c r="I213" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Broad blend of Deep Neutral UIL with triplet of N I lines, but UIL dominates")</f>
+        <v>Broad blend of Deep Neutral UIL with triplet of N I lines, but UIL dominates</v>
+      </c>
       <c r="J213" s="12"/>
       <c r="K213" s="12"/>
       <c r="L213" s="12"/>
@@ -32701,38 +32976,41 @@
     </row>
     <row r="214">
       <c r="A214" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3306.0)</f>
-        <v>3306</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3280.0)</f>
+        <v>3280</v>
       </c>
       <c r="B214" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C214" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8732.44482421875)</f>
-        <v>8732.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8699.94482421875)</f>
+        <v>8699.944824</v>
       </c>
       <c r="D214" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8726.92)</f>
-        <v>8726.92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8695.52)</f>
+        <v>8695.52</v>
       </c>
       <c r="E214" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
+        <v>Neutral?</v>
       </c>
       <c r="F214" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[C I] 8727.13")</f>
-        <v>[C I] 8727.13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G214" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.6537)</f>
-        <v>6.6537</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.55)</f>
+        <v>0.55</v>
       </c>
       <c r="H214" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
-      <c r="I214" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
+      </c>
+      <c r="I214" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Looks very similar to #3286 but there is no N I line here")</f>
+        <v>Looks very similar to #3286 but there is no N I line here</v>
+      </c>
       <c r="J214" s="12"/>
       <c r="K214" s="12"/>
       <c r="L214" s="12"/>
@@ -32753,40 +33031,40 @@
     </row>
     <row r="215">
       <c r="A215" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3311.0)</f>
-        <v>3311</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3286.0)</f>
+        <v>3286</v>
       </c>
       <c r="B215" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C215" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8738.69482421875)</f>
-        <v>8738.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8707.44482421875)</f>
+        <v>8707.444824</v>
       </c>
       <c r="D215" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8733.22)</f>
-        <v>8733.22</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8703.19)</f>
+        <v>8703.19</v>
       </c>
       <c r="E215" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
+        <v>Neutral</v>
       </c>
       <c r="F215" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"He I 8733.43")</f>
-        <v>He I 8733.43</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8703.247")</f>
+        <v>N I 8703.247</v>
       </c>
       <c r="G215" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.24)</f>
-        <v>0.24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.87)</f>
+        <v>0.87</v>
       </c>
       <c r="H215" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
         <v>101B</v>
       </c>
       <c r="I215" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Extremely weak")</f>
-        <v>Extremely weak</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No obvious diffuse emission. Compact sources only. Same multiplet as 8683")</f>
+        <v>No obvious diffuse emission. Compact sources only. Same multiplet as 8683</v>
       </c>
       <c r="J215" s="12"/>
       <c r="K215" s="12"/>
@@ -32808,38 +33086,41 @@
     </row>
     <row r="216">
       <c r="A216" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3315.0)</f>
-        <v>3315</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3293.0)</f>
+        <v>3293</v>
       </c>
       <c r="B216" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C216" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8743.69482421875)</f>
-        <v>8743.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8716.19482421875)</f>
+        <v>8716.194824</v>
       </c>
       <c r="D216" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8738.39)</f>
-        <v>8738.39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8711.87)</f>
+        <v>8711.87</v>
       </c>
       <c r="E216" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
+        <v>Neutral</v>
       </c>
       <c r="F216" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8711.703")</f>
+        <v>N I 8711.703</v>
       </c>
       <c r="G216" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0595)</f>
-        <v>2.0595</v>
-      </c>
-      <c r="H216" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
-      </c>
-      <c r="I216" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.74)</f>
+        <v>0.74</v>
+      </c>
+      <c r="H216" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B, 11")</f>
+        <v>101B, 11</v>
+      </c>
+      <c r="I216" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diffuse emission is very weak. Same multiplet as 8683")</f>
+        <v>Diffuse emission is very weak. Same multiplet as 8683</v>
+      </c>
       <c r="J216" s="12"/>
       <c r="K216" s="12"/>
       <c r="L216" s="12"/>
@@ -32860,36 +33141,36 @@
     </row>
     <row r="217">
       <c r="A217" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3324.0)</f>
-        <v>3324</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3299.0)</f>
+        <v>3299</v>
       </c>
       <c r="B217" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C217" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8754.94482421875)</f>
-        <v>8754.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8723.69482421875)</f>
+        <v>8723.694824</v>
       </c>
       <c r="D217" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8750.17)</f>
-        <v>8750.17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8718.52)</f>
+        <v>8718.52</v>
       </c>
       <c r="E217" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
+        <v>Neutral</v>
       </c>
       <c r="F217" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8750.48")</f>
-        <v>H I 8750.48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N I 8718.837")</f>
+        <v>N I 8718.837</v>
       </c>
       <c r="G217" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.6821)</f>
-        <v>33.6821</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.31)</f>
+        <v>0.31</v>
       </c>
       <c r="H217" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
       </c>
       <c r="I217" s="12"/>
       <c r="J217" s="12"/>
@@ -32912,41 +33193,38 @@
     </row>
     <row r="218">
       <c r="A218" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3355.0)</f>
-        <v>3355</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3306.0)</f>
+        <v>3306</v>
       </c>
       <c r="B218" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C218" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8793.69482421875)</f>
-        <v>8793.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8732.44482421875)</f>
+        <v>8732.444824</v>
       </c>
       <c r="D218" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8789.03)</f>
-        <v>8789.03</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8726.92)</f>
+        <v>8726.92</v>
       </c>
       <c r="E218" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
         <v>Deep Neutral</v>
       </c>
       <c r="F218" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[C I] 8727.13")</f>
+        <v>[C I] 8727.13</v>
       </c>
       <c r="G218" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5051)</f>
-        <v>8.5051</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.6537)</f>
+        <v>6.6537</v>
       </c>
       <c r="H218" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I218" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Possible ID: C_2 8788.559")</f>
-        <v>Possible ID: C_2 8788.559</v>
-      </c>
+      <c r="I218" s="12"/>
       <c r="J218" s="12"/>
       <c r="K218" s="12"/>
       <c r="L218" s="12"/>
@@ -32967,40 +33245,40 @@
     </row>
     <row r="219">
       <c r="A219" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3372.0)</f>
-        <v>3372</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3311.0)</f>
+        <v>3311</v>
       </c>
       <c r="B219" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C219" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8814.94482421875)</f>
-        <v>8814.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8738.69482421875)</f>
+        <v>8738.694824</v>
       </c>
       <c r="D219" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8809.78)</f>
-        <v>8809.78</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8733.22)</f>
+        <v>8733.22</v>
       </c>
       <c r="E219" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F219" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"He I 8733.43")</f>
+        <v>He I 8733.43</v>
       </c>
       <c r="G219" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.9591)</f>
-        <v>2.9591</v>
-      </c>
-      <c r="H219" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.24)</f>
+        <v>0.24</v>
+      </c>
+      <c r="H219" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
       </c>
       <c r="I219" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Possible ID: C_2 8809.841")</f>
-        <v>Possible ID: C_2 8809.841</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Extremely weak")</f>
+        <v>Extremely weak</v>
       </c>
       <c r="J219" s="12"/>
       <c r="K219" s="12"/>
@@ -33022,20 +33300,20 @@
     </row>
     <row r="220">
       <c r="A220" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3405.0)</f>
-        <v>3405</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3315.0)</f>
+        <v>3315</v>
       </c>
       <c r="B220" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C220" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8856.19482421875)</f>
-        <v>8856.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8743.69482421875)</f>
+        <v>8743.694824</v>
       </c>
       <c r="D220" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8850.63)</f>
-        <v>8850.63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8738.39)</f>
+        <v>8738.39</v>
       </c>
       <c r="E220" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
@@ -33046,17 +33324,14 @@
         <v>UIL</v>
       </c>
       <c r="G220" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9147)</f>
-        <v>7.9147</v>
-      </c>
-      <c r="H220" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
-      <c r="I220" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky line at 8850.055")</f>
-        <v>Sky line at 8850.055</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0595)</f>
+        <v>2.0595</v>
+      </c>
+      <c r="H220" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
+      </c>
+      <c r="I220" s="12"/>
       <c r="J220" s="12"/>
       <c r="K220" s="12"/>
       <c r="L220" s="12"/>
@@ -33077,32 +33352,32 @@
     </row>
     <row r="221">
       <c r="A221" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3414.0)</f>
-        <v>3414</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3324.0)</f>
+        <v>3324</v>
       </c>
       <c r="B221" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C221" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8867.44482421875)</f>
-        <v>8867.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8754.94482421875)</f>
+        <v>8754.944824</v>
       </c>
       <c r="D221" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8862.5)</f>
-        <v>8862.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8750.17)</f>
+        <v>8750.17</v>
       </c>
       <c r="E221" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
         <v>Med Neb</v>
       </c>
       <c r="F221" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8862.79")</f>
-        <v>H I 8862.79</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8750.48")</f>
+        <v>H I 8750.48</v>
       </c>
       <c r="G221" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.7255)</f>
-        <v>49.7255</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.6821)</f>
+        <v>33.6821</v>
       </c>
       <c r="H221" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
@@ -33129,35 +33404,35 @@
     </row>
     <row r="222">
       <c r="A222" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3435.0)</f>
-        <v>3435</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3330.0)</f>
+        <v>3330</v>
       </c>
       <c r="B222" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C222" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8893.69482421875)</f>
-        <v>8893.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8762.44482421875)</f>
+        <v>8762.444824</v>
       </c>
       <c r="D222" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8888.95)</f>
-        <v>8888.95</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8758.17)</f>
+        <v>8758.17</v>
       </c>
       <c r="E222" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
-        <v>Deep Neutral?</v>
-      </c>
-      <c r="F222" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb?")</f>
+        <v>Med Neb?</v>
+      </c>
+      <c r="F222" s="12"/>
       <c r="G222" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.1)</f>
-        <v>3.1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.1805)</f>
+        <v>1.1805</v>
       </c>
       <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
+      <c r="I222" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* Look like emission line in blob-e")</f>
+        <v>* Look like emission line in blob-e</v>
+      </c>
       <c r="J222" s="12"/>
       <c r="K222" s="12"/>
       <c r="L222" s="12"/>
@@ -33178,40 +33453,34 @@
     </row>
     <row r="223">
       <c r="A223" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3439.0)</f>
-        <v>3439</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3335.0)</f>
+        <v>3335</v>
       </c>
       <c r="B223" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C223" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8898.69482421875)</f>
-        <v>8898.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8768.69482421875)</f>
+        <v>8768.694824</v>
       </c>
       <c r="D223" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8893.72)</f>
-        <v>8893.72</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8763.94)</f>
+        <v>8763.94</v>
       </c>
       <c r="E223" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
-      </c>
-      <c r="F223" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
+        <v>Neutral?</v>
+      </c>
+      <c r="F223" s="12"/>
       <c r="G223" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0521)</f>
-        <v>12.0521</v>
-      </c>
-      <c r="H223" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.1574)</f>
+        <v>2.1574</v>
+      </c>
+      <c r="H223" s="12"/>
       <c r="I223" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ne I line at 8892.22 and [Fe II] 8891.93")</f>
-        <v>Ne I line at 8892.22 and [Fe II] 8891.93</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* Look like emission line in neutral")</f>
+        <v>* Look like emission line in neutral</v>
       </c>
       <c r="J223" s="12"/>
       <c r="K223" s="12"/>
@@ -33233,29 +33502,35 @@
     </row>
     <row r="224">
       <c r="A224" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3470.0)</f>
-        <v>3470</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3343.0)</f>
+        <v>3343</v>
       </c>
       <c r="B224" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C224" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8937.44482421875)</f>
-        <v>8937.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8778.69482421875)</f>
+        <v>8778.694824</v>
       </c>
       <c r="D224" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8932.44)</f>
-        <v>8932.44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8774.78)</f>
+        <v>8774.78</v>
       </c>
       <c r="E224" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Noise")</f>
-        <v>Noise</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
+        <v>Neutral?</v>
       </c>
       <c r="F224" s="12"/>
-      <c r="G224" s="16"/>
+      <c r="G224" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.2905)</f>
+        <v>3.2905</v>
+      </c>
       <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
+      <c r="I224" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* Look like emission line in neutral")</f>
+        <v>* Look like emission line in neutral</v>
+      </c>
       <c r="J224" s="12"/>
       <c r="K224" s="12"/>
       <c r="L224" s="12"/>
@@ -33276,32 +33551,41 @@
     </row>
     <row r="225">
       <c r="A225" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3476.0)</f>
-        <v>3476</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3355.0)</f>
+        <v>3355</v>
       </c>
       <c r="B225" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C225" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8944.94482421875)</f>
-        <v>8944.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8793.69482421875)</f>
+        <v>8793.694824</v>
       </c>
       <c r="D225" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8939.56)</f>
-        <v>8939.56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8789.03)</f>
+        <v>8789.03</v>
       </c>
       <c r="E225" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
-        <v>Neutral?</v>
-      </c>
-      <c r="F225" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
+      </c>
+      <c r="F225" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
       <c r="G225" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.6847)</f>
-        <v>0.6847</v>
-      </c>
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5051)</f>
+        <v>8.5051</v>
+      </c>
+      <c r="H225" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I225" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Possible ID: C_2 8788.559")</f>
+        <v>Possible ID: C_2 8788.559</v>
+      </c>
       <c r="J225" s="12"/>
       <c r="K225" s="12"/>
       <c r="L225" s="12"/>
@@ -33322,40 +33606,34 @@
     </row>
     <row r="226">
       <c r="A226" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3481.0)</f>
-        <v>3481</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3362.0)</f>
+        <v>3362</v>
       </c>
       <c r="B226" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C226" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8951.19482421875)</f>
-        <v>8951.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8802.44482421875)</f>
+        <v>8802.444824</v>
       </c>
       <c r="D226" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8945.37)</f>
-        <v>8945.37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8798.11)</f>
+        <v>8798.11</v>
       </c>
       <c r="E226" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
-      </c>
-      <c r="F226" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb?")</f>
+        <v>Med Neb?</v>
+      </c>
+      <c r="F226" s="12"/>
       <c r="G226" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.4582)</f>
-        <v>6.4582</v>
-      </c>
-      <c r="H226" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.416)</f>
+        <v>0.416</v>
+      </c>
+      <c r="H226" s="12"/>
       <c r="I226" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky line at 8943.395")</f>
-        <v>Sky line at 8943.395</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* Look like emission line in blob-e")</f>
+        <v>* Look like emission line in blob-e</v>
       </c>
       <c r="J226" s="12"/>
       <c r="K226" s="12"/>
@@ -33377,31 +33655,40 @@
     </row>
     <row r="227">
       <c r="A227" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3487.0)</f>
-        <v>3487</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3372.0)</f>
+        <v>3372</v>
       </c>
       <c r="B227" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C227" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8958.69482421875)</f>
-        <v>8958.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8814.94482421875)</f>
+        <v>8814.944824</v>
       </c>
       <c r="D227" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8954.4)</f>
-        <v>8954.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8809.78)</f>
+        <v>8809.78</v>
       </c>
       <c r="E227" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky")</f>
-        <v>Sky</v>
-      </c>
-      <c r="F227" s="12"/>
-      <c r="G227" s="16"/>
-      <c r="H227" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
+      </c>
+      <c r="F227" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G227" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.9591)</f>
+        <v>2.9591</v>
+      </c>
+      <c r="H227" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
+      </c>
       <c r="I227" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* look like absortion line")</f>
-        <v>* look like absortion line</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Possible ID: C_2 8809.841")</f>
+        <v>Possible ID: C_2 8809.841</v>
       </c>
       <c r="J227" s="12"/>
       <c r="K227" s="12"/>
@@ -33423,29 +33710,38 @@
     </row>
     <row r="228">
       <c r="A228" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3494.0)</f>
-        <v>3494</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3378.0)</f>
+        <v>3378</v>
       </c>
       <c r="B228" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C228" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8967.44482421875)</f>
-        <v>8967.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8822.44482421875)</f>
+        <v>8822.444824</v>
       </c>
       <c r="D228" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8963.23)</f>
-        <v>8963.23</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8817.67)</f>
+        <v>8817.67</v>
       </c>
       <c r="E228" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky?")</f>
-        <v>Sky?</v>
-      </c>
-      <c r="F228" s="12"/>
-      <c r="G228" s="16"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
+        <v>Deep Neutral?</v>
+      </c>
+      <c r="F228" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G228" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.178)</f>
+        <v>1.178</v>
+      </c>
       <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
+      <c r="I228" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* Look like emission line in blob-e")</f>
+        <v>* Look like emission line in blob-e</v>
+      </c>
       <c r="J228" s="12"/>
       <c r="K228" s="12"/>
       <c r="L228" s="12"/>
@@ -33466,27 +33762,30 @@
     </row>
     <row r="229">
       <c r="A229" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3503.0)</f>
-        <v>3503</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3382.0)</f>
+        <v>3382</v>
       </c>
       <c r="B229" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C229" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8978.69482421875)</f>
-        <v>8978.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8827.44482421875)</f>
+        <v>8827.444824</v>
       </c>
       <c r="D229" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8973.66)</f>
-        <v>8973.66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8823.14)</f>
+        <v>8823.14</v>
       </c>
       <c r="E229" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Noise")</f>
-        <v>Noise</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky")</f>
+        <v>Sky</v>
       </c>
       <c r="F229" s="12"/>
-      <c r="G229" s="16"/>
+      <c r="G229" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.8991)</f>
+        <v>4.8991</v>
+      </c>
       <c r="H229" s="12"/>
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
@@ -33509,35 +33808,32 @@
     </row>
     <row r="230">
       <c r="A230" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3522.0)</f>
-        <v>3522</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3401.0)</f>
+        <v>3401</v>
       </c>
       <c r="B230" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C230" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9002.44482421875)</f>
-        <v>9002.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8851.19482421875)</f>
+        <v>8851.194824</v>
       </c>
       <c r="D230" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8997.12)</f>
-        <v>8997.12</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8845.75)</f>
+        <v>8845.75</v>
       </c>
       <c r="E230" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky")</f>
         <v>Sky</v>
       </c>
-      <c r="F230" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OH 9001.4+")</f>
-        <v>OH 9001.4+</v>
-      </c>
-      <c r="G230" s="16"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.3687)</f>
+        <v>8.3687</v>
+      </c>
       <c r="H230" s="12"/>
-      <c r="I230" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Impossible to measure the He I line because of sky OH")</f>
-        <v>Impossible to measure the He I line because of sky OH</v>
-      </c>
+      <c r="I230" s="12"/>
       <c r="J230" s="12"/>
       <c r="K230" s="12"/>
       <c r="L230" s="12"/>
@@ -33558,32 +33854,32 @@
     </row>
     <row r="231">
       <c r="A231" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3536.0)</f>
-        <v>3536</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3405.0)</f>
+        <v>3405</v>
       </c>
       <c r="B231" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C231" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9019.94482421875)</f>
-        <v>9019.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8856.19482421875)</f>
+        <v>8856.194824</v>
       </c>
       <c r="D231" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9014.62)</f>
-        <v>9014.62</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8850.63)</f>
+        <v>8850.63</v>
       </c>
       <c r="E231" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F231" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 9014.91")</f>
-        <v>H I 9014.91</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G231" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
-        <v>59</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9147)</f>
+        <v>7.9147</v>
       </c>
       <c r="H231" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
@@ -33610,41 +33906,38 @@
     </row>
     <row r="232">
       <c r="A232" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3539.0)</f>
-        <v>3539</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3414.0)</f>
+        <v>3414</v>
       </c>
       <c r="B232" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C232" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9023.69482421875)</f>
-        <v>9023.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8867.44482421875)</f>
+        <v>8867.444824</v>
       </c>
       <c r="D232" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9019.07)</f>
-        <v>9019.07</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8862.5)</f>
+        <v>8862.5</v>
       </c>
       <c r="E232" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F232" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 8862.79")</f>
+        <v>H I 8862.79</v>
       </c>
       <c r="G232" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2)</f>
-        <v>7.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.7255)</f>
+        <v>49.7255</v>
       </c>
       <c r="H232" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I232" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Affected by wings of H I line")</f>
-        <v>Affected by wings of H I line</v>
-      </c>
+      <c r="I232" s="12"/>
       <c r="J232" s="12"/>
       <c r="K232" s="12"/>
       <c r="L232" s="12"/>
@@ -33665,37 +33958,34 @@
     </row>
     <row r="233">
       <c r="A233" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3548.0)</f>
-        <v>3548</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3435.0)</f>
+        <v>3435</v>
       </c>
       <c r="B233" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C233" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9034.94482421875)</f>
-        <v>9034.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8893.69482421875)</f>
+        <v>8893.694824</v>
       </c>
       <c r="D233" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9029.2)</f>
-        <v>9029.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8888.95)</f>
+        <v>8888.95</v>
       </c>
       <c r="E233" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
+        <v>Deep Neutral?</v>
       </c>
       <c r="F233" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
         <v>UIL</v>
       </c>
       <c r="G233" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.1)</f>
-        <v>11.1</v>
-      </c>
-      <c r="H233" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.1)</f>
+        <v>3.1</v>
+      </c>
+      <c r="H233" s="12"/>
       <c r="I233" s="12"/>
       <c r="J233" s="12"/>
       <c r="K233" s="12"/>
@@ -33717,20 +34007,20 @@
     </row>
     <row r="234">
       <c r="A234" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3570.0)</f>
-        <v>3570</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3439.0)</f>
+        <v>3439</v>
       </c>
       <c r="B234" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C234" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9062.44482421875)</f>
-        <v>9062.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8898.69482421875)</f>
+        <v>8898.694824</v>
       </c>
       <c r="D234" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9057.14)</f>
-        <v>9057.14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8893.72)</f>
+        <v>8893.72</v>
       </c>
       <c r="E234" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
@@ -33741,16 +34031,16 @@
         <v>UIL</v>
       </c>
       <c r="G234" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.7)</f>
-        <v>6.7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0521)</f>
+        <v>12.0521</v>
       </c>
       <c r="H234" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
       <c r="I234" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Unique morphology. Bright in NE")</f>
-        <v>Unique morphology. Bright in NE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ne I line at 8892.22 and [Fe II] 8891.93")</f>
+        <v>Ne I line at 8892.22 and [Fe II] 8891.93</v>
       </c>
       <c r="J234" s="12"/>
       <c r="K234" s="12"/>
@@ -33772,37 +34062,31 @@
     </row>
     <row r="235">
       <c r="A235" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3574.0)</f>
-        <v>3574</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3444.0)</f>
+        <v>3444</v>
       </c>
       <c r="B235" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C235" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9067.44482421875)</f>
-        <v>9067.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8904.94482421875)</f>
+        <v>8904.944824</v>
       </c>
       <c r="D235" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9061.97)</f>
-        <v>9061.97</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8900.08)</f>
+        <v>8900.08</v>
       </c>
       <c r="E235" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
+        <v>Deep Neutral?</v>
       </c>
       <c r="F235" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"He I 9063.29")</f>
-        <v>He I 9063.29</v>
-      </c>
-      <c r="G235" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.5067)</f>
-        <v>1.5067</v>
-      </c>
-      <c r="H235" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
-        <v>101</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G235" s="16"/>
+      <c r="H235" s="12"/>
       <c r="I235" s="12"/>
       <c r="J235" s="12"/>
       <c r="K235" s="12"/>
@@ -33824,37 +34108,28 @@
     </row>
     <row r="236">
       <c r="A236" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3579.0)</f>
-        <v>3579</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3456.0)</f>
+        <v>3456</v>
       </c>
       <c r="B236" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C236" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9073.69482421875)</f>
-        <v>9073.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8919.94482421875)</f>
+        <v>8919.944824</v>
       </c>
       <c r="D236" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9068.7)</f>
-        <v>9068.7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8915.5)</f>
+        <v>8915.5</v>
       </c>
       <c r="E236" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
-      </c>
-      <c r="F236" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[S III] 9068.90")</f>
-        <v>[S III] 9068.90</v>
-      </c>
-      <c r="G236" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
-        <v>260</v>
-      </c>
-      <c r="H236" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
+        <v>Neutral?</v>
+      </c>
+      <c r="F236" s="12"/>
+      <c r="G236" s="16"/>
+      <c r="H236" s="12"/>
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
       <c r="K236" s="12"/>
@@ -33876,37 +34151,28 @@
     </row>
     <row r="237">
       <c r="A237" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3591.0)</f>
-        <v>3591</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3470.0)</f>
+        <v>3470</v>
       </c>
       <c r="B237" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C237" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9088.69482421875)</f>
-        <v>9088.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8937.44482421875)</f>
+        <v>8937.444824</v>
       </c>
       <c r="D237" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9084.0)</f>
-        <v>9084</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8932.44)</f>
+        <v>8932.44</v>
       </c>
       <c r="E237" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
-        <v>Deep Neutral?</v>
-      </c>
-      <c r="F237" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
-      </c>
-      <c r="G237" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.2)</f>
-        <v>2.2</v>
-      </c>
-      <c r="H237" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Noise")</f>
+        <v>Noise</v>
+      </c>
+      <c r="F237" s="12"/>
+      <c r="G237" s="16"/>
+      <c r="H237" s="12"/>
       <c r="I237" s="12"/>
       <c r="J237" s="12"/>
       <c r="K237" s="12"/>
@@ -33928,37 +34194,31 @@
     </row>
     <row r="238">
       <c r="A238" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3603.0)</f>
-        <v>3603</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3476.0)</f>
+        <v>3476</v>
       </c>
       <c r="B238" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C238" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9103.69482421875)</f>
-        <v>9103.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8944.94482421875)</f>
+        <v>8944.944824</v>
       </c>
       <c r="D238" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9099.09)</f>
-        <v>9099.09</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8939.56)</f>
+        <v>8939.56</v>
       </c>
       <c r="E238" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
-      </c>
-      <c r="F238" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
+        <v>Neutral?</v>
+      </c>
+      <c r="F238" s="12"/>
       <c r="G238" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
-      </c>
-      <c r="H238" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.6847)</f>
+        <v>0.6847</v>
+      </c>
+      <c r="H238" s="12"/>
       <c r="I238" s="12"/>
       <c r="J238" s="12"/>
       <c r="K238" s="12"/>
@@ -33980,20 +34240,20 @@
     </row>
     <row r="239">
       <c r="A239" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3615.0)</f>
-        <v>3615</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3481.0)</f>
+        <v>3481</v>
       </c>
       <c r="B239" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C239" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9118.69482421875)</f>
-        <v>9118.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8951.19482421875)</f>
+        <v>8951.194824</v>
       </c>
       <c r="D239" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9113.52)</f>
-        <v>9113.52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8945.37)</f>
+        <v>8945.37</v>
       </c>
       <c r="E239" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
@@ -34004,14 +34264,17 @@
         <v>UIL</v>
       </c>
       <c r="G239" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.4)</f>
-        <v>5.4</v>
-      </c>
-      <c r="H239" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
-      </c>
-      <c r="I239" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.4582)</f>
+        <v>6.4582</v>
+      </c>
+      <c r="H239" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
+      </c>
+      <c r="I239" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky line at 8943.395")</f>
+        <v>Sky line at 8943.395</v>
+      </c>
       <c r="J239" s="12"/>
       <c r="K239" s="12"/>
       <c r="L239" s="12"/>
@@ -34032,40 +34295,31 @@
     </row>
     <row r="240">
       <c r="A240" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3622.0)</f>
-        <v>3622</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3487.0)</f>
+        <v>3487</v>
       </c>
       <c r="B240" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C240" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9127.44482421875)</f>
-        <v>9127.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8958.69482421875)</f>
+        <v>8958.694824</v>
       </c>
       <c r="D240" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9121.74)</f>
-        <v>9121.74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8954.4)</f>
+        <v>8954.4</v>
       </c>
       <c r="E240" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Low Neb?")</f>
-        <v>Low Neb?</v>
-      </c>
-      <c r="F240" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Cl II] 9123.60")</f>
-        <v>[Cl II] 9123.60</v>
-      </c>
-      <c r="G240" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.6)</f>
-        <v>0.6</v>
-      </c>
-      <c r="H240" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky")</f>
+        <v>Sky</v>
+      </c>
+      <c r="F240" s="12"/>
+      <c r="G240" s="16"/>
+      <c r="H240" s="12"/>
       <c r="I240" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bad telluric absorption around here")</f>
-        <v>Bad telluric absorption around here</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"* look like absortion line")</f>
+        <v>* look like absortion line</v>
       </c>
       <c r="J240" s="12"/>
       <c r="K240" s="12"/>
@@ -34087,41 +34341,29 @@
     </row>
     <row r="241">
       <c r="A241" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3640.0)</f>
-        <v>3640</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3494.0)</f>
+        <v>3494</v>
       </c>
       <c r="B241" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C241" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9149.94482421875)</f>
-        <v>9149.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8967.44482421875)</f>
+        <v>8967.444824</v>
       </c>
       <c r="D241" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9144.31)</f>
-        <v>9144.31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8963.23)</f>
+        <v>8963.23</v>
       </c>
       <c r="E241" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
-        <v>Deep Neutral</v>
-      </c>
-      <c r="F241" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
-      </c>
-      <c r="G241" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.7)</f>
-        <v>5.7</v>
-      </c>
-      <c r="H241" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
-      <c r="I241" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Affected by absorption feature at lambda(obs) 9153")</f>
-        <v>Affected by absorption feature at lambda(obs) 9153</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky?")</f>
+        <v>Sky?</v>
+      </c>
+      <c r="F241" s="12"/>
+      <c r="G241" s="16"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
       <c r="J241" s="12"/>
       <c r="K241" s="12"/>
       <c r="L241" s="12"/>
@@ -34142,41 +34384,29 @@
     </row>
     <row r="242">
       <c r="A242" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3649.0)</f>
-        <v>3649</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3503.0)</f>
+        <v>3503</v>
       </c>
       <c r="B242" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C242" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9161.19482421875)</f>
-        <v>9161.194824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8978.69482421875)</f>
+        <v>8978.694824</v>
       </c>
       <c r="D242" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9158.57)</f>
-        <v>9158.57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8973.66)</f>
+        <v>8973.66</v>
       </c>
       <c r="E242" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
-        <v>Deep Neutral?</v>
-      </c>
-      <c r="F242" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
-      </c>
-      <c r="G242" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.4)</f>
-        <v>4.4</v>
-      </c>
-      <c r="H242" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
-      </c>
-      <c r="I242" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Broad. Affected by same absorption")</f>
-        <v>Broad. Affected by same absorption</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Noise")</f>
+        <v>Noise</v>
+      </c>
+      <c r="F242" s="12"/>
+      <c r="G242" s="16"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="12"/>
       <c r="J242" s="12"/>
       <c r="K242" s="12"/>
       <c r="L242" s="12"/>
@@ -34197,31 +34427,34 @@
     </row>
     <row r="243">
       <c r="A243" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3664.0)</f>
-        <v>3664</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3522.0)</f>
+        <v>3522</v>
       </c>
       <c r="B243" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C243" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9179.94482421875)</f>
-        <v>9179.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9002.44482421875)</f>
+        <v>9002.444824</v>
       </c>
       <c r="D243" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9175.76)</f>
-        <v>9175.76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8997.12)</f>
+        <v>8997.12</v>
       </c>
       <c r="E243" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"?")</f>
-        <v>?</v>
-      </c>
-      <c r="F243" s="12"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sky")</f>
+        <v>Sky</v>
+      </c>
+      <c r="F243" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"OH 9001.4+")</f>
+        <v>OH 9001.4+</v>
+      </c>
       <c r="G243" s="16"/>
       <c r="H243" s="12"/>
       <c r="I243" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YSO only")</f>
-        <v>YSO only</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Impossible to measure the He I line because of sky OH")</f>
+        <v>Impossible to measure the He I line because of sky OH</v>
       </c>
       <c r="J243" s="12"/>
       <c r="K243" s="12"/>
@@ -34243,41 +34476,38 @@
     </row>
     <row r="244">
       <c r="A244" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3687.0)</f>
-        <v>3687</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3536.0)</f>
+        <v>3536</v>
       </c>
       <c r="B244" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C244" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9208.69482421875)</f>
-        <v>9208.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9019.94482421875)</f>
+        <v>9019.944824</v>
       </c>
       <c r="D244" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9204.18)</f>
-        <v>9204.18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9014.62)</f>
+        <v>9014.62</v>
       </c>
       <c r="E244" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
-        <v>Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F244" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ca I] 9204.09")</f>
-        <v>Ca I] 9204.09</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 9014.91")</f>
+        <v>H I 9014.91</v>
       </c>
       <c r="G244" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
+        <v>59</v>
       </c>
       <c r="H244" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101B")</f>
-        <v>11, 101B</v>
-      </c>
-      <c r="I244" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Morphology different from #3720. Looks like the [Fe II] lines")</f>
-        <v>Morphology different from #3720. Looks like the [Fe II] lines</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I244" s="12"/>
       <c r="J244" s="12"/>
       <c r="K244" s="12"/>
       <c r="L244" s="12"/>
@@ -34298,38 +34528,41 @@
     </row>
     <row r="245">
       <c r="A245" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3692.0)</f>
-        <v>3692</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3539.0)</f>
+        <v>3539</v>
       </c>
       <c r="B245" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C245" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9214.94482421875)</f>
-        <v>9214.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9023.69482421875)</f>
+        <v>9023.694824</v>
       </c>
       <c r="D245" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9210.11)</f>
-        <v>9210.11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9019.07)</f>
+        <v>9019.07</v>
       </c>
       <c r="E245" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F245" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"He I 9210.28")</f>
-        <v>He I 9210.28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G245" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3)</f>
-        <v>1.3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.2)</f>
+        <v>7.2</v>
       </c>
       <c r="H245" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I245" s="12"/>
+      <c r="I245" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Affected by wings of H I line")</f>
+        <v>Affected by wings of H I line</v>
+      </c>
       <c r="J245" s="12"/>
       <c r="K245" s="12"/>
       <c r="L245" s="12"/>
@@ -34350,41 +34583,38 @@
     </row>
     <row r="246">
       <c r="A246" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3699.0)</f>
-        <v>3699</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3548.0)</f>
+        <v>3548</v>
       </c>
       <c r="B246" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C246" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9223.69482421875)</f>
-        <v>9223.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9034.94482421875)</f>
+        <v>9034.944824</v>
       </c>
       <c r="D246" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9217.98)</f>
-        <v>9217.98</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9029.2)</f>
+        <v>9029.2</v>
       </c>
       <c r="E246" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
-        <v>Neutral?</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F246" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
         <v>UIL</v>
       </c>
       <c r="G246" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-      <c r="H246" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
-      </c>
-      <c r="I246" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Looks similar to some Ca I lines such as #3687")</f>
-        <v>Looks similar to some Ca I lines such as #3687</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.1)</f>
+        <v>11.1</v>
+      </c>
+      <c r="H246" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I246" s="12"/>
       <c r="J246" s="12"/>
       <c r="K246" s="12"/>
       <c r="L246" s="12"/>
@@ -34405,38 +34635,41 @@
     </row>
     <row r="247">
       <c r="A247" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3707.0)</f>
-        <v>3707</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3570.0)</f>
+        <v>3570</v>
       </c>
       <c r="B247" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C247" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9233.69482421875)</f>
-        <v>9233.694824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9062.44482421875)</f>
+        <v>9062.444824</v>
       </c>
       <c r="D247" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9228.82)</f>
-        <v>9228.82</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9057.14)</f>
+        <v>9057.14</v>
       </c>
       <c r="E247" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
-        <v>Med Neb</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
       </c>
       <c r="F247" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 9229.01")</f>
-        <v>H I 9229.01</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
       </c>
       <c r="G247" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.7)</f>
+        <v>6.7</v>
       </c>
       <c r="H247" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
         <v>11, 101</v>
       </c>
-      <c r="I247" s="12"/>
+      <c r="I247" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Unique morphology. Bright in NE")</f>
+        <v>Unique morphology. Bright in NE</v>
+      </c>
       <c r="J247" s="12"/>
       <c r="K247" s="12"/>
       <c r="L247" s="12"/>
@@ -34457,41 +34690,38 @@
     </row>
     <row r="248">
       <c r="A248" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3720.0)</f>
-        <v>3720</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3574.0)</f>
+        <v>3574</v>
       </c>
       <c r="B248" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C248" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9249.94482421875)</f>
-        <v>9249.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9067.44482421875)</f>
+        <v>9067.444824</v>
       </c>
       <c r="D248" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9244.4)</f>
-        <v>9244.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9061.97)</f>
+        <v>9061.97</v>
       </c>
       <c r="E248" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
-        <v>Neutral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F248" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ca I] 9244.31")</f>
-        <v>Ca I] 9244.31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"He I 9063.29")</f>
+        <v>He I 9063.29</v>
       </c>
       <c r="G248" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.4)</f>
-        <v>1.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.5067)</f>
+        <v>1.5067</v>
       </c>
       <c r="H248" s="12">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
-        <v>11</v>
-      </c>
-      <c r="I248" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Has diffuse emission like other neutral lines")</f>
-        <v>Has diffuse emission like other neutral lines</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
+      </c>
+      <c r="I248" s="12"/>
       <c r="J248" s="12"/>
       <c r="K248" s="12"/>
       <c r="L248" s="12"/>
@@ -34512,41 +34742,38 @@
     </row>
     <row r="249">
       <c r="A249" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3736.0)</f>
-        <v>3736</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3579.0)</f>
+        <v>3579</v>
       </c>
       <c r="B249" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C249" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9269.94482421875)</f>
-        <v>9269.944824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9073.69482421875)</f>
+        <v>9073.694824</v>
       </c>
       <c r="D249" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9262.16)</f>
-        <v>9262.16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9068.7)</f>
+        <v>9068.7</v>
       </c>
       <c r="E249" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral??")</f>
-        <v>Deep Neutral??</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
       </c>
       <c r="F249" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
-        <v>UIL</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[S III] 9068.90")</f>
+        <v>[S III] 9068.90</v>
       </c>
       <c r="G249" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),260.0)</f>
+        <v>260</v>
       </c>
       <c r="H249" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
-        <v>101B</v>
-      </c>
-      <c r="I249" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diffuse emission is marginal")</f>
-        <v>Diffuse emission is marginal</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I249" s="12"/>
       <c r="J249" s="12"/>
       <c r="K249" s="12"/>
       <c r="L249" s="12"/>
@@ -34567,20 +34794,20 @@
     </row>
     <row r="250">
       <c r="A250" s="8">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3762.0)</f>
-        <v>3762</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3591.0)</f>
+        <v>3591</v>
       </c>
       <c r="B250" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
         <v>GLOB-E</v>
       </c>
       <c r="C250" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9302.44482421875)</f>
-        <v>9302.444824</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9088.69482421875)</f>
+        <v>9088.694824</v>
       </c>
       <c r="D250" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9297.64)</f>
-        <v>9297.64</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9084.0)</f>
+        <v>9084</v>
       </c>
       <c r="E250" s="12" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
@@ -34591,12 +34818,12 @@
         <v>UIL</v>
       </c>
       <c r="G250" s="16">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.2)</f>
-        <v>10.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.2)</f>
+        <v>2.2</v>
       </c>
       <c r="H250" s="12" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
-        <v>11, 101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
       </c>
       <c r="I250" s="12"/>
       <c r="J250" s="12"/>
@@ -34616,6 +34843,807 @@
       <c r="X250" s="12"/>
       <c r="Y250" s="12"/>
       <c r="Z250" s="12"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3603.0)</f>
+        <v>3603</v>
+      </c>
+      <c r="B251" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C251" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9103.69482421875)</f>
+        <v>9103.694824</v>
+      </c>
+      <c r="D251" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9099.09)</f>
+        <v>9099.09</v>
+      </c>
+      <c r="E251" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
+      </c>
+      <c r="F251" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G251" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
+      </c>
+      <c r="H251" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
+      </c>
+      <c r="I251" s="12"/>
+      <c r="J251" s="12"/>
+      <c r="K251" s="12"/>
+      <c r="L251" s="12"/>
+      <c r="M251" s="12"/>
+      <c r="N251" s="12"/>
+      <c r="O251" s="12"/>
+      <c r="P251" s="12"/>
+      <c r="Q251" s="12"/>
+      <c r="R251" s="12"/>
+      <c r="S251" s="12"/>
+      <c r="T251" s="12"/>
+      <c r="U251" s="12"/>
+      <c r="V251" s="12"/>
+      <c r="W251" s="12"/>
+      <c r="X251" s="12"/>
+      <c r="Y251" s="12"/>
+      <c r="Z251" s="12"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3615.0)</f>
+        <v>3615</v>
+      </c>
+      <c r="B252" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C252" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9118.69482421875)</f>
+        <v>9118.694824</v>
+      </c>
+      <c r="D252" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9113.52)</f>
+        <v>9113.52</v>
+      </c>
+      <c r="E252" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
+      </c>
+      <c r="F252" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G252" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.4)</f>
+        <v>5.4</v>
+      </c>
+      <c r="H252" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
+      </c>
+      <c r="I252" s="12"/>
+      <c r="J252" s="12"/>
+      <c r="K252" s="12"/>
+      <c r="L252" s="12"/>
+      <c r="M252" s="12"/>
+      <c r="N252" s="12"/>
+      <c r="O252" s="12"/>
+      <c r="P252" s="12"/>
+      <c r="Q252" s="12"/>
+      <c r="R252" s="12"/>
+      <c r="S252" s="12"/>
+      <c r="T252" s="12"/>
+      <c r="U252" s="12"/>
+      <c r="V252" s="12"/>
+      <c r="W252" s="12"/>
+      <c r="X252" s="12"/>
+      <c r="Y252" s="12"/>
+      <c r="Z252" s="12"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3622.0)</f>
+        <v>3622</v>
+      </c>
+      <c r="B253" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C253" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9127.44482421875)</f>
+        <v>9127.444824</v>
+      </c>
+      <c r="D253" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9121.74)</f>
+        <v>9121.74</v>
+      </c>
+      <c r="E253" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Low Neb?")</f>
+        <v>Low Neb?</v>
+      </c>
+      <c r="F253" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Cl II] 9123.60")</f>
+        <v>[Cl II] 9123.60</v>
+      </c>
+      <c r="G253" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.6)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H253" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
+      </c>
+      <c r="I253" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bad telluric absorption around here")</f>
+        <v>Bad telluric absorption around here</v>
+      </c>
+      <c r="J253" s="12"/>
+      <c r="K253" s="12"/>
+      <c r="L253" s="12"/>
+      <c r="M253" s="12"/>
+      <c r="N253" s="12"/>
+      <c r="O253" s="12"/>
+      <c r="P253" s="12"/>
+      <c r="Q253" s="12"/>
+      <c r="R253" s="12"/>
+      <c r="S253" s="12"/>
+      <c r="T253" s="12"/>
+      <c r="U253" s="12"/>
+      <c r="V253" s="12"/>
+      <c r="W253" s="12"/>
+      <c r="X253" s="12"/>
+      <c r="Y253" s="12"/>
+      <c r="Z253" s="12"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3640.0)</f>
+        <v>3640</v>
+      </c>
+      <c r="B254" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C254" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9149.94482421875)</f>
+        <v>9149.944824</v>
+      </c>
+      <c r="D254" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9144.31)</f>
+        <v>9144.31</v>
+      </c>
+      <c r="E254" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
+      </c>
+      <c r="F254" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G254" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.7)</f>
+        <v>5.7</v>
+      </c>
+      <c r="H254" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I254" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Affected by absorption feature at lambda(obs) 9153")</f>
+        <v>Affected by absorption feature at lambda(obs) 9153</v>
+      </c>
+      <c r="J254" s="12"/>
+      <c r="K254" s="12"/>
+      <c r="L254" s="12"/>
+      <c r="M254" s="12"/>
+      <c r="N254" s="12"/>
+      <c r="O254" s="12"/>
+      <c r="P254" s="12"/>
+      <c r="Q254" s="12"/>
+      <c r="R254" s="12"/>
+      <c r="S254" s="12"/>
+      <c r="T254" s="12"/>
+      <c r="U254" s="12"/>
+      <c r="V254" s="12"/>
+      <c r="W254" s="12"/>
+      <c r="X254" s="12"/>
+      <c r="Y254" s="12"/>
+      <c r="Z254" s="12"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3649.0)</f>
+        <v>3649</v>
+      </c>
+      <c r="B255" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C255" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9161.19482421875)</f>
+        <v>9161.194824</v>
+      </c>
+      <c r="D255" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9158.57)</f>
+        <v>9158.57</v>
+      </c>
+      <c r="E255" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
+        <v>Deep Neutral?</v>
+      </c>
+      <c r="F255" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G255" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.4)</f>
+        <v>4.4</v>
+      </c>
+      <c r="H255" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I255" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Broad. Affected by same absorption")</f>
+        <v>Broad. Affected by same absorption</v>
+      </c>
+      <c r="J255" s="12"/>
+      <c r="K255" s="12"/>
+      <c r="L255" s="12"/>
+      <c r="M255" s="12"/>
+      <c r="N255" s="12"/>
+      <c r="O255" s="12"/>
+      <c r="P255" s="12"/>
+      <c r="Q255" s="12"/>
+      <c r="R255" s="12"/>
+      <c r="S255" s="12"/>
+      <c r="T255" s="12"/>
+      <c r="U255" s="12"/>
+      <c r="V255" s="12"/>
+      <c r="W255" s="12"/>
+      <c r="X255" s="12"/>
+      <c r="Y255" s="12"/>
+      <c r="Z255" s="12"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3654.0)</f>
+        <v>3654</v>
+      </c>
+      <c r="B256" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BY-HAND")</f>
+        <v>BY-HAND</v>
+      </c>
+      <c r="C256" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9167.44482421875)</f>
+        <v>9167.444824</v>
+      </c>
+      <c r="D256" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9162.2480594)</f>
+        <v>9162.248059</v>
+      </c>
+      <c r="E256" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
+        <v>Deep Neutral?</v>
+      </c>
+      <c r="F256" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G256" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="H256" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
+      </c>
+      <c r="I256" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Weaker counterpart to previous, can be seen as separate line. Strength and wavelength approximate.")</f>
+        <v>Weaker counterpart to previous, can be seen as separate line. Strength and wavelength approximate.</v>
+      </c>
+      <c r="J256" s="12"/>
+      <c r="K256" s="12"/>
+      <c r="L256" s="12"/>
+      <c r="M256" s="12"/>
+      <c r="N256" s="12"/>
+      <c r="O256" s="12"/>
+      <c r="P256" s="12"/>
+      <c r="Q256" s="12"/>
+      <c r="R256" s="12"/>
+      <c r="S256" s="12"/>
+      <c r="T256" s="12"/>
+      <c r="U256" s="12"/>
+      <c r="V256" s="12"/>
+      <c r="W256" s="12"/>
+      <c r="X256" s="12"/>
+      <c r="Y256" s="12"/>
+      <c r="Z256" s="12"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3664.0)</f>
+        <v>3664</v>
+      </c>
+      <c r="B257" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C257" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9179.94482421875)</f>
+        <v>9179.944824</v>
+      </c>
+      <c r="D257" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9175.76)</f>
+        <v>9175.76</v>
+      </c>
+      <c r="E257" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"?")</f>
+        <v>?</v>
+      </c>
+      <c r="F257" s="12"/>
+      <c r="G257" s="16"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"YSO only")</f>
+        <v>YSO only</v>
+      </c>
+      <c r="J257" s="12"/>
+      <c r="K257" s="12"/>
+      <c r="L257" s="12"/>
+      <c r="M257" s="12"/>
+      <c r="N257" s="12"/>
+      <c r="O257" s="12"/>
+      <c r="P257" s="12"/>
+      <c r="Q257" s="12"/>
+      <c r="R257" s="12"/>
+      <c r="S257" s="12"/>
+      <c r="T257" s="12"/>
+      <c r="U257" s="12"/>
+      <c r="V257" s="12"/>
+      <c r="W257" s="12"/>
+      <c r="X257" s="12"/>
+      <c r="Y257" s="12"/>
+      <c r="Z257" s="12"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3687.0)</f>
+        <v>3687</v>
+      </c>
+      <c r="B258" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C258" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9208.69482421875)</f>
+        <v>9208.694824</v>
+      </c>
+      <c r="D258" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9204.18)</f>
+        <v>9204.18</v>
+      </c>
+      <c r="E258" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
+        <v>Neutral</v>
+      </c>
+      <c r="F258" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ca I] 9204.09")</f>
+        <v>Ca I] 9204.09</v>
+      </c>
+      <c r="G258" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="H258" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101B")</f>
+        <v>11, 101B</v>
+      </c>
+      <c r="I258" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Morphology different from #3720. Looks like the [Fe II] lines")</f>
+        <v>Morphology different from #3720. Looks like the [Fe II] lines</v>
+      </c>
+      <c r="J258" s="12"/>
+      <c r="K258" s="12"/>
+      <c r="L258" s="12"/>
+      <c r="M258" s="12"/>
+      <c r="N258" s="12"/>
+      <c r="O258" s="12"/>
+      <c r="P258" s="12"/>
+      <c r="Q258" s="12"/>
+      <c r="R258" s="12"/>
+      <c r="S258" s="12"/>
+      <c r="T258" s="12"/>
+      <c r="U258" s="12"/>
+      <c r="V258" s="12"/>
+      <c r="W258" s="12"/>
+      <c r="X258" s="12"/>
+      <c r="Y258" s="12"/>
+      <c r="Z258" s="12"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3692.0)</f>
+        <v>3692</v>
+      </c>
+      <c r="B259" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C259" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9214.94482421875)</f>
+        <v>9214.944824</v>
+      </c>
+      <c r="D259" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9210.11)</f>
+        <v>9210.11</v>
+      </c>
+      <c r="E259" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
+      </c>
+      <c r="F259" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"He I 9210.28")</f>
+        <v>He I 9210.28</v>
+      </c>
+      <c r="G259" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="H259" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I259" s="12"/>
+      <c r="J259" s="12"/>
+      <c r="K259" s="12"/>
+      <c r="L259" s="12"/>
+      <c r="M259" s="12"/>
+      <c r="N259" s="12"/>
+      <c r="O259" s="12"/>
+      <c r="P259" s="12"/>
+      <c r="Q259" s="12"/>
+      <c r="R259" s="12"/>
+      <c r="S259" s="12"/>
+      <c r="T259" s="12"/>
+      <c r="U259" s="12"/>
+      <c r="V259" s="12"/>
+      <c r="W259" s="12"/>
+      <c r="X259" s="12"/>
+      <c r="Y259" s="12"/>
+      <c r="Z259" s="12"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3699.0)</f>
+        <v>3699</v>
+      </c>
+      <c r="B260" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C260" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9223.69482421875)</f>
+        <v>9223.694824</v>
+      </c>
+      <c r="D260" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9217.98)</f>
+        <v>9217.98</v>
+      </c>
+      <c r="E260" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral?")</f>
+        <v>Neutral?</v>
+      </c>
+      <c r="F260" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G260" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="H260" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
+      </c>
+      <c r="I260" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Looks similar to some Ca I lines such as #3687")</f>
+        <v>Looks similar to some Ca I lines such as #3687</v>
+      </c>
+      <c r="J260" s="12"/>
+      <c r="K260" s="12"/>
+      <c r="L260" s="12"/>
+      <c r="M260" s="12"/>
+      <c r="N260" s="12"/>
+      <c r="O260" s="12"/>
+      <c r="P260" s="12"/>
+      <c r="Q260" s="12"/>
+      <c r="R260" s="12"/>
+      <c r="S260" s="12"/>
+      <c r="T260" s="12"/>
+      <c r="U260" s="12"/>
+      <c r="V260" s="12"/>
+      <c r="W260" s="12"/>
+      <c r="X260" s="12"/>
+      <c r="Y260" s="12"/>
+      <c r="Z260" s="12"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3707.0)</f>
+        <v>3707</v>
+      </c>
+      <c r="B261" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C261" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9233.69482421875)</f>
+        <v>9233.694824</v>
+      </c>
+      <c r="D261" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9228.82)</f>
+        <v>9228.82</v>
+      </c>
+      <c r="E261" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Med Neb")</f>
+        <v>Med Neb</v>
+      </c>
+      <c r="F261" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"H I 9229.01")</f>
+        <v>H I 9229.01</v>
+      </c>
+      <c r="G261" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
+      </c>
+      <c r="H261" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I261" s="12"/>
+      <c r="J261" s="12"/>
+      <c r="K261" s="12"/>
+      <c r="L261" s="12"/>
+      <c r="M261" s="12"/>
+      <c r="N261" s="12"/>
+      <c r="O261" s="12"/>
+      <c r="P261" s="12"/>
+      <c r="Q261" s="12"/>
+      <c r="R261" s="12"/>
+      <c r="S261" s="12"/>
+      <c r="T261" s="12"/>
+      <c r="U261" s="12"/>
+      <c r="V261" s="12"/>
+      <c r="W261" s="12"/>
+      <c r="X261" s="12"/>
+      <c r="Y261" s="12"/>
+      <c r="Z261" s="12"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3711.0)</f>
+        <v>3711</v>
+      </c>
+      <c r="B262" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BY-HAND")</f>
+        <v>BY-HAND</v>
+      </c>
+      <c r="C262" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9238.69482421875)</f>
+        <v>9238.694824</v>
+      </c>
+      <c r="D262" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9233.45770727)</f>
+        <v>9233.457707</v>
+      </c>
+      <c r="E262" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral")</f>
+        <v>Deep Neutral</v>
+      </c>
+      <c r="F262" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL+")</f>
+        <v>UIL+</v>
+      </c>
+      <c r="G262" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
+      </c>
+      <c r="H262" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
+      </c>
+      <c r="I262" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Severe blend with red wing of H I line. Strength and wavelength are very approximate")</f>
+        <v>Severe blend with red wing of H I line. Strength and wavelength are very approximate</v>
+      </c>
+      <c r="J262" s="12"/>
+      <c r="K262" s="12"/>
+      <c r="L262" s="12"/>
+      <c r="M262" s="12"/>
+      <c r="N262" s="12"/>
+      <c r="O262" s="12"/>
+      <c r="P262" s="12"/>
+      <c r="Q262" s="12"/>
+      <c r="R262" s="12"/>
+      <c r="S262" s="12"/>
+      <c r="T262" s="12"/>
+      <c r="U262" s="12"/>
+      <c r="V262" s="12"/>
+      <c r="W262" s="12"/>
+      <c r="X262" s="12"/>
+      <c r="Y262" s="12"/>
+      <c r="Z262" s="12"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3720.0)</f>
+        <v>3720</v>
+      </c>
+      <c r="B263" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C263" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9249.94482421875)</f>
+        <v>9249.944824</v>
+      </c>
+      <c r="D263" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9244.4)</f>
+        <v>9244.4</v>
+      </c>
+      <c r="E263" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Neutral")</f>
+        <v>Neutral</v>
+      </c>
+      <c r="F263" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ca I] 9244.31")</f>
+        <v>Ca I] 9244.31</v>
+      </c>
+      <c r="G263" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.4)</f>
+        <v>1.4</v>
+      </c>
+      <c r="H263" s="12">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
+      </c>
+      <c r="I263" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Has diffuse emission like other neutral lines")</f>
+        <v>Has diffuse emission like other neutral lines</v>
+      </c>
+      <c r="J263" s="12"/>
+      <c r="K263" s="12"/>
+      <c r="L263" s="12"/>
+      <c r="M263" s="12"/>
+      <c r="N263" s="12"/>
+      <c r="O263" s="12"/>
+      <c r="P263" s="12"/>
+      <c r="Q263" s="12"/>
+      <c r="R263" s="12"/>
+      <c r="S263" s="12"/>
+      <c r="T263" s="12"/>
+      <c r="U263" s="12"/>
+      <c r="V263" s="12"/>
+      <c r="W263" s="12"/>
+      <c r="X263" s="12"/>
+      <c r="Y263" s="12"/>
+      <c r="Z263" s="12"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3736.0)</f>
+        <v>3736</v>
+      </c>
+      <c r="B264" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C264" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9269.94482421875)</f>
+        <v>9269.944824</v>
+      </c>
+      <c r="D264" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9262.16)</f>
+        <v>9262.16</v>
+      </c>
+      <c r="E264" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral??")</f>
+        <v>Deep Neutral??</v>
+      </c>
+      <c r="F264" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G264" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="H264" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"101B")</f>
+        <v>101B</v>
+      </c>
+      <c r="I264" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diffuse emission is marginal")</f>
+        <v>Diffuse emission is marginal</v>
+      </c>
+      <c r="J264" s="12"/>
+      <c r="K264" s="12"/>
+      <c r="L264" s="12"/>
+      <c r="M264" s="12"/>
+      <c r="N264" s="12"/>
+      <c r="O264" s="12"/>
+      <c r="P264" s="12"/>
+      <c r="Q264" s="12"/>
+      <c r="R264" s="12"/>
+      <c r="S264" s="12"/>
+      <c r="T264" s="12"/>
+      <c r="U264" s="12"/>
+      <c r="V264" s="12"/>
+      <c r="W264" s="12"/>
+      <c r="X264" s="12"/>
+      <c r="Y264" s="12"/>
+      <c r="Z264" s="12"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="8">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3762.0)</f>
+        <v>3762</v>
+      </c>
+      <c r="B265" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"GLOB-E")</f>
+        <v>GLOB-E</v>
+      </c>
+      <c r="C265" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9302.44482421875)</f>
+        <v>9302.444824</v>
+      </c>
+      <c r="D265" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9297.64)</f>
+        <v>9297.64</v>
+      </c>
+      <c r="E265" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Deep Neutral?")</f>
+        <v>Deep Neutral?</v>
+      </c>
+      <c r="F265" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"UIL")</f>
+        <v>UIL</v>
+      </c>
+      <c r="G265" s="16">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.2)</f>
+        <v>10.2</v>
+      </c>
+      <c r="H265" s="12" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"11, 101")</f>
+        <v>11, 101</v>
+      </c>
+      <c r="I265" s="12"/>
+      <c r="J265" s="12"/>
+      <c r="K265" s="12"/>
+      <c r="L265" s="12"/>
+      <c r="M265" s="12"/>
+      <c r="N265" s="12"/>
+      <c r="O265" s="12"/>
+      <c r="P265" s="12"/>
+      <c r="Q265" s="12"/>
+      <c r="R265" s="12"/>
+      <c r="S265" s="12"/>
+      <c r="T265" s="12"/>
+      <c r="U265" s="12"/>
+      <c r="V265" s="12"/>
+      <c r="W265" s="12"/>
+      <c r="X265" s="12"/>
+      <c r="Y265" s="12"/>
+      <c r="Z265" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
